--- a/xlsx/motor-4-torso.xlsx
+++ b/xlsx/motor-4-torso.xlsx
@@ -15,291 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>89</t>
+    <t>törzsemelés</t>
   </si>
 </sst>
 </file>
@@ -333,13 +51,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -642,10 +402,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="26" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1">
         <v>7</v>
       </c>
@@ -711,975 +475,947 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1">
+        <v>29</v>
+      </c>
+      <c r="H2" s="1">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1">
+        <v>32</v>
+      </c>
+      <c r="J2" s="1">
+        <v>33</v>
+      </c>
+      <c r="K2" s="1">
+        <v>34</v>
+      </c>
+      <c r="L2" s="1">
+        <v>35</v>
+      </c>
+      <c r="M2" s="1">
+        <v>36</v>
+      </c>
+      <c r="N2" s="1">
+        <v>37</v>
+      </c>
+      <c r="O2" s="1">
+        <v>38</v>
+      </c>
+      <c r="P2" s="1">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>17</v>
+      </c>
+      <c r="R2" s="1">
+        <v>14</v>
+      </c>
+      <c r="S2" s="1">
+        <v>8</v>
+      </c>
+      <c r="T2" s="1">
+        <v>4</v>
+      </c>
+      <c r="U2" s="1">
         <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="C3" s="1">
         <v>23</v>
       </c>
-      <c r="N3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="D3" s="1">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1">
         <v>32</v>
       </c>
-      <c r="U3" t="s">
-        <v>31</v>
+      <c r="G3" s="1">
+        <v>33</v>
+      </c>
+      <c r="H3" s="1">
+        <v>34</v>
+      </c>
+      <c r="I3" s="1">
+        <v>36</v>
+      </c>
+      <c r="J3" s="1">
+        <v>37</v>
+      </c>
+      <c r="K3" s="1">
+        <v>38</v>
+      </c>
+      <c r="L3" s="1">
+        <v>39</v>
+      </c>
+      <c r="M3" s="1">
+        <v>40</v>
+      </c>
+      <c r="N3" s="1">
+        <v>41</v>
+      </c>
+      <c r="O3" s="1">
+        <v>42</v>
+      </c>
+      <c r="P3" s="1">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1">
+        <v>16</v>
+      </c>
+      <c r="S3" s="1">
+        <v>10</v>
+      </c>
+      <c r="T3" s="1">
+        <v>5</v>
+      </c>
+      <c r="U3" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1">
+        <v>36</v>
+      </c>
+      <c r="G4" s="1">
+        <v>37</v>
+      </c>
+      <c r="H4" s="1">
+        <v>38</v>
+      </c>
+      <c r="I4" s="1">
+        <v>40</v>
+      </c>
+      <c r="J4" s="1">
+        <v>41</v>
+      </c>
+      <c r="K4" s="1">
+        <v>42</v>
+      </c>
+      <c r="L4" s="1">
+        <v>43</v>
+      </c>
+      <c r="M4" s="1">
+        <v>44</v>
+      </c>
+      <c r="N4" s="1">
+        <v>45</v>
+      </c>
+      <c r="O4" s="1">
+        <v>46</v>
+      </c>
+      <c r="P4" s="1">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>21</v>
+      </c>
+      <c r="R4" s="1">
+        <v>18</v>
+      </c>
+      <c r="S4" s="1">
+        <v>12</v>
+      </c>
+      <c r="T4" s="1">
+        <v>6</v>
+      </c>
+      <c r="U4" s="1">
         <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>14</v>
-      </c>
-      <c r="R4" t="s">
-        <v>41</v>
-      </c>
-      <c r="S4" t="s">
-        <v>37</v>
-      </c>
-      <c r="T4" t="s">
-        <v>42</v>
-      </c>
-      <c r="U4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1">
+        <v>40</v>
+      </c>
+      <c r="G5" s="1">
+        <v>41</v>
+      </c>
+      <c r="H5" s="1">
+        <v>42</v>
+      </c>
+      <c r="I5" s="1">
+        <v>44</v>
+      </c>
+      <c r="J5" s="1">
+        <v>45</v>
+      </c>
+      <c r="K5" s="1">
+        <v>46</v>
+      </c>
+      <c r="L5" s="1">
+        <v>47</v>
+      </c>
+      <c r="M5" s="1">
+        <v>48</v>
+      </c>
+      <c r="N5" s="1">
+        <v>49</v>
+      </c>
+      <c r="O5" s="1">
+        <v>50</v>
+      </c>
+      <c r="P5" s="1">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>23</v>
+      </c>
+      <c r="R5" s="1">
+        <v>20</v>
+      </c>
+      <c r="S5" s="1">
+        <v>14</v>
+      </c>
+      <c r="T5" s="1">
+        <v>7</v>
+      </c>
+      <c r="U5" s="1">
         <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>22</v>
-      </c>
-      <c r="R5" t="s">
-        <v>20</v>
-      </c>
-      <c r="S5" t="s">
-        <v>16</v>
-      </c>
-      <c r="T5" t="s">
-        <v>48</v>
-      </c>
-      <c r="U5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="B6" s="1">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1">
+        <v>44</v>
+      </c>
+      <c r="G6" s="1">
+        <v>45</v>
+      </c>
+      <c r="H6" s="1">
+        <v>46</v>
+      </c>
+      <c r="I6" s="1">
+        <v>48</v>
+      </c>
+      <c r="J6" s="1">
+        <v>49</v>
+      </c>
+      <c r="K6" s="1">
+        <v>50</v>
+      </c>
+      <c r="L6" s="1">
+        <v>51</v>
+      </c>
+      <c r="M6" s="1">
+        <v>52</v>
+      </c>
+      <c r="N6" s="1">
+        <v>53</v>
+      </c>
+      <c r="O6" s="1">
+        <v>54</v>
+      </c>
+      <c r="P6" s="1">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="1">
         <v>25</v>
       </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" t="s">
-        <v>52</v>
-      </c>
-      <c r="O6" t="s">
-        <v>45</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="R6" s="1">
+        <v>22</v>
+      </c>
+      <c r="S6" s="1">
+        <v>16</v>
+      </c>
+      <c r="T6" s="1">
+        <v>9</v>
+      </c>
+      <c r="U6" s="1">
         <v>5</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R6" t="s">
-        <v>2</v>
-      </c>
-      <c r="S6" t="s">
-        <v>0</v>
-      </c>
-      <c r="T6" t="s">
-        <v>53</v>
-      </c>
-      <c r="U6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44</v>
+      </c>
+      <c r="F7" s="1">
+        <v>48</v>
+      </c>
+      <c r="G7" s="1">
+        <v>49</v>
+      </c>
+      <c r="H7" s="1">
+        <v>50</v>
+      </c>
+      <c r="I7" s="1">
+        <v>52</v>
+      </c>
+      <c r="J7" s="1">
+        <v>53</v>
+      </c>
+      <c r="K7" s="1">
+        <v>54</v>
+      </c>
+      <c r="L7" s="1">
+        <v>55</v>
+      </c>
+      <c r="M7" s="1">
+        <v>56</v>
+      </c>
+      <c r="N7" s="1">
+        <v>57</v>
+      </c>
+      <c r="O7" s="1">
+        <v>58</v>
+      </c>
+      <c r="P7" s="1">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>27</v>
+      </c>
+      <c r="R7" s="1">
+        <v>24</v>
+      </c>
+      <c r="S7" s="1">
+        <v>18</v>
+      </c>
+      <c r="T7" s="1">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M7" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" t="s">
-        <v>57</v>
-      </c>
-      <c r="O7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R7" t="s">
-        <v>3</v>
-      </c>
-      <c r="S7" t="s">
-        <v>41</v>
-      </c>
-      <c r="T7" t="s">
-        <v>59</v>
-      </c>
-      <c r="U7" t="s">
-        <v>42</v>
+      <c r="U7" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B8" s="1">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1">
+        <v>48</v>
+      </c>
+      <c r="F8" s="1">
+        <v>52</v>
+      </c>
+      <c r="G8" s="1">
+        <v>53</v>
+      </c>
+      <c r="H8" s="1">
+        <v>54</v>
+      </c>
+      <c r="I8" s="1">
+        <v>56</v>
+      </c>
+      <c r="J8" s="1">
+        <v>57</v>
+      </c>
+      <c r="K8" s="1">
+        <v>58</v>
+      </c>
+      <c r="L8" s="1">
+        <v>59</v>
+      </c>
+      <c r="M8" s="1">
+        <v>60</v>
+      </c>
+      <c r="N8" s="1">
+        <v>61</v>
+      </c>
+      <c r="O8" s="1">
+        <v>62</v>
+      </c>
+      <c r="P8" s="1">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>29</v>
+      </c>
+      <c r="R8" s="1">
         <v>26</v>
       </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" t="s">
-        <v>61</v>
-      </c>
-      <c r="M8" t="s">
-        <v>54</v>
-      </c>
-      <c r="N8" t="s">
-        <v>62</v>
-      </c>
-      <c r="O8" t="s">
-        <v>55</v>
-      </c>
-      <c r="P8" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>5</v>
-      </c>
-      <c r="R8" t="s">
-        <v>21</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="S8" s="1">
         <v>20</v>
       </c>
-      <c r="T8" t="s">
-        <v>65</v>
-      </c>
-      <c r="U8" t="s">
-        <v>48</v>
+      <c r="T8" s="1">
+        <v>13</v>
+      </c>
+      <c r="U8" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B9" s="1">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1">
+        <v>47</v>
+      </c>
+      <c r="D9" s="1">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1">
+        <v>52</v>
+      </c>
+      <c r="F9" s="1">
+        <v>56</v>
+      </c>
+      <c r="G9" s="1">
+        <v>57</v>
+      </c>
+      <c r="H9" s="1">
+        <v>58</v>
+      </c>
+      <c r="I9" s="1">
+        <v>60</v>
+      </c>
+      <c r="J9" s="1">
+        <v>61</v>
+      </c>
+      <c r="K9" s="1">
+        <v>62</v>
+      </c>
+      <c r="L9" s="1">
+        <v>63</v>
+      </c>
+      <c r="M9" s="1">
+        <v>64</v>
+      </c>
+      <c r="N9" s="1">
+        <v>65</v>
+      </c>
+      <c r="O9" s="1">
+        <v>66</v>
+      </c>
+      <c r="P9" s="1">
         <v>35</v>
       </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" t="s">
-        <v>66</v>
-      </c>
-      <c r="M9" t="s">
-        <v>58</v>
-      </c>
-      <c r="N9" t="s">
-        <v>67</v>
-      </c>
-      <c r="O9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P9" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>43</v>
-      </c>
-      <c r="R9" t="s">
-        <v>4</v>
-      </c>
-      <c r="S9" t="s">
-        <v>2</v>
-      </c>
-      <c r="T9" t="s">
+      <c r="Q9" s="1">
+        <v>31</v>
+      </c>
+      <c r="R9" s="1">
         <v>28</v>
       </c>
-      <c r="U9" t="s">
-        <v>53</v>
+      <c r="S9" s="1">
+        <v>22</v>
+      </c>
+      <c r="T9" s="1">
+        <v>15</v>
+      </c>
+      <c r="U9" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="1">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1">
         <v>51</v>
       </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="D10" s="1">
+        <v>56</v>
+      </c>
+      <c r="E10" s="1">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1">
+        <v>60</v>
+      </c>
+      <c r="G10" s="1">
+        <v>61</v>
+      </c>
+      <c r="H10" s="1">
         <v>62</v>
       </c>
-      <c r="H10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="I10" s="1">
+        <v>64</v>
+      </c>
+      <c r="J10" s="1">
+        <v>65</v>
+      </c>
+      <c r="K10" s="1">
+        <v>66</v>
+      </c>
+      <c r="L10" s="1">
         <v>67</v>
       </c>
-      <c r="K10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" t="s">
-        <v>74</v>
-      </c>
-      <c r="M10" t="s">
-        <v>63</v>
-      </c>
-      <c r="N10" t="s">
-        <v>75</v>
-      </c>
-      <c r="O10" t="s">
-        <v>64</v>
-      </c>
-      <c r="P10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>8</v>
-      </c>
-      <c r="R10" t="s">
-        <v>6</v>
-      </c>
-      <c r="S10" t="s">
-        <v>3</v>
-      </c>
-      <c r="T10" t="s">
-        <v>15</v>
-      </c>
-      <c r="U10" t="s">
-        <v>59</v>
+      <c r="M10" s="1">
+        <v>68</v>
+      </c>
+      <c r="N10" s="1">
+        <v>69</v>
+      </c>
+      <c r="O10" s="1">
+        <v>70</v>
+      </c>
+      <c r="P10" s="1">
+        <v>37</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>33</v>
+      </c>
+      <c r="R10" s="1">
+        <v>30</v>
+      </c>
+      <c r="S10" s="1">
+        <v>24</v>
+      </c>
+      <c r="T10" s="1">
+        <v>17</v>
+      </c>
+      <c r="U10" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="B11" s="1">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1">
         <v>58</v>
       </c>
-      <c r="G11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="E11" s="1">
         <v>60</v>
       </c>
-      <c r="I11" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" t="s">
-        <v>75</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="F11" s="1">
         <v>64</v>
       </c>
-      <c r="L11" t="s">
-        <v>78</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="G11" s="1">
+        <v>65</v>
+      </c>
+      <c r="H11" s="1">
+        <v>66</v>
+      </c>
+      <c r="I11" s="1">
         <v>68</v>
       </c>
-      <c r="N11" t="s">
-        <v>79</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="J11" s="1">
         <v>69</v>
       </c>
-      <c r="P11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>10</v>
-      </c>
-      <c r="R11" t="s">
-        <v>7</v>
-      </c>
-      <c r="S11" t="s">
-        <v>21</v>
-      </c>
-      <c r="T11" t="s">
-        <v>1</v>
-      </c>
-      <c r="U11" t="s">
-        <v>65</v>
+      <c r="K11" s="1">
+        <v>70</v>
+      </c>
+      <c r="L11" s="1">
+        <v>71</v>
+      </c>
+      <c r="M11" s="1">
+        <v>72</v>
+      </c>
+      <c r="N11" s="1">
+        <v>73</v>
+      </c>
+      <c r="O11" s="1">
+        <v>74</v>
+      </c>
+      <c r="P11" s="1">
+        <v>39</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>35</v>
+      </c>
+      <c r="R11" s="1">
+        <v>32</v>
+      </c>
+      <c r="S11" s="1">
+        <v>26</v>
+      </c>
+      <c r="T11" s="1">
+        <v>19</v>
+      </c>
+      <c r="U11" s="1">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="B12" s="1">
+        <v>56</v>
+      </c>
+      <c r="C12" s="1">
+        <v>59</v>
+      </c>
+      <c r="D12" s="1">
+        <v>62</v>
+      </c>
+      <c r="E12" s="1">
+        <v>64</v>
+      </c>
+      <c r="F12" s="1">
+        <v>68</v>
+      </c>
+      <c r="G12" s="1">
+        <v>69</v>
+      </c>
+      <c r="H12" s="1">
+        <v>70</v>
+      </c>
+      <c r="I12" s="1">
+        <v>72</v>
+      </c>
+      <c r="J12" s="1">
+        <v>73</v>
+      </c>
+      <c r="K12" s="1">
+        <v>74</v>
+      </c>
+      <c r="L12" s="1">
         <v>75</v>
       </c>
-      <c r="H12" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" t="s">
-        <v>69</v>
-      </c>
-      <c r="L12" t="s">
-        <v>82</v>
-      </c>
-      <c r="M12" t="s">
-        <v>70</v>
-      </c>
-      <c r="N12" t="s">
-        <v>83</v>
-      </c>
-      <c r="O12" t="s">
-        <v>71</v>
-      </c>
-      <c r="P12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R12" t="s">
-        <v>9</v>
-      </c>
-      <c r="S12" t="s">
-        <v>4</v>
-      </c>
-      <c r="T12" t="s">
-        <v>14</v>
-      </c>
-      <c r="U12" t="s">
+      <c r="M12" s="1">
+        <v>76</v>
+      </c>
+      <c r="N12" s="1">
+        <v>77</v>
+      </c>
+      <c r="O12" s="1">
+        <v>78</v>
+      </c>
+      <c r="P12" s="1">
+        <v>41</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>37</v>
+      </c>
+      <c r="R12" s="1">
+        <v>34</v>
+      </c>
+      <c r="S12" s="1">
         <v>28</v>
+      </c>
+      <c r="T12" s="1">
+        <v>21</v>
+      </c>
+      <c r="U12" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="1">
+        <v>60</v>
+      </c>
+      <c r="C13" s="1">
+        <v>63</v>
+      </c>
+      <c r="D13" s="1">
         <v>66</v>
       </c>
-      <c r="D13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" s="1">
         <v>68</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F13" s="1">
+        <v>72</v>
+      </c>
+      <c r="G13" s="1">
+        <v>73</v>
+      </c>
+      <c r="H13" s="1">
+        <v>74</v>
+      </c>
+      <c r="I13" s="1">
+        <v>76</v>
+      </c>
+      <c r="J13" s="1">
+        <v>77</v>
+      </c>
+      <c r="K13" s="1">
+        <v>78</v>
+      </c>
+      <c r="L13" s="1">
         <v>79</v>
       </c>
-      <c r="H13" t="s">
-        <v>69</v>
-      </c>
-      <c r="I13" t="s">
-        <v>70</v>
-      </c>
-      <c r="J13" t="s">
-        <v>83</v>
-      </c>
-      <c r="K13" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" t="s">
-        <v>86</v>
-      </c>
-      <c r="M13" t="s">
-        <v>72</v>
-      </c>
-      <c r="N13" t="s">
-        <v>87</v>
-      </c>
-      <c r="O13" t="s">
-        <v>73</v>
-      </c>
-      <c r="P13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S13" t="s">
-        <v>6</v>
-      </c>
-      <c r="T13" t="s">
-        <v>22</v>
-      </c>
-      <c r="U13" t="s">
-        <v>15</v>
+      <c r="M13" s="1">
+        <v>80</v>
+      </c>
+      <c r="N13" s="1">
+        <v>81</v>
+      </c>
+      <c r="O13" s="1">
+        <v>82</v>
+      </c>
+      <c r="P13" s="1">
+        <v>43</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>39</v>
+      </c>
+      <c r="R13" s="1">
+        <v>36</v>
+      </c>
+      <c r="S13" s="1">
+        <v>30</v>
+      </c>
+      <c r="T13" s="1">
+        <v>23</v>
+      </c>
+      <c r="U13" s="1">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B14" s="1">
         <v>64</v>
       </c>
-      <c r="E14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="C14" s="1">
+        <v>67</v>
+      </c>
+      <c r="D14" s="1">
         <v>70</v>
       </c>
-      <c r="G14" t="s">
+      <c r="E14" s="1">
+        <v>72</v>
+      </c>
+      <c r="F14" s="1">
+        <v>76</v>
+      </c>
+      <c r="G14" s="1">
+        <v>77</v>
+      </c>
+      <c r="H14" s="1">
+        <v>78</v>
+      </c>
+      <c r="I14" s="1">
+        <v>80</v>
+      </c>
+      <c r="J14" s="1">
+        <v>81</v>
+      </c>
+      <c r="K14" s="1">
+        <v>82</v>
+      </c>
+      <c r="L14" s="1">
         <v>83</v>
       </c>
-      <c r="H14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" t="s">
-        <v>72</v>
-      </c>
-      <c r="J14" t="s">
-        <v>87</v>
-      </c>
-      <c r="K14" t="s">
-        <v>73</v>
-      </c>
-      <c r="L14" t="s">
-        <v>91</v>
-      </c>
-      <c r="M14" t="s">
-        <v>76</v>
-      </c>
-      <c r="N14" t="s">
-        <v>92</v>
-      </c>
-      <c r="O14" t="s">
-        <v>77</v>
-      </c>
-      <c r="P14" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>30</v>
-      </c>
-      <c r="R14" t="s">
-        <v>13</v>
-      </c>
-      <c r="S14" t="s">
-        <v>7</v>
-      </c>
-      <c r="T14" t="s">
-        <v>36</v>
-      </c>
-      <c r="U14" t="s">
-        <v>1</v>
+      <c r="M14" s="1">
+        <v>84</v>
+      </c>
+      <c r="N14" s="1">
+        <v>85</v>
+      </c>
+      <c r="O14" s="1">
+        <v>86</v>
+      </c>
+      <c r="P14" s="1">
+        <v>45</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>41</v>
+      </c>
+      <c r="R14" s="1">
+        <v>38</v>
+      </c>
+      <c r="S14" s="1">
+        <v>32</v>
+      </c>
+      <c r="T14" s="1">
+        <v>25</v>
+      </c>
+      <c r="U14" s="1">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="B15" s="1">
+        <v>68</v>
+      </c>
+      <c r="C15" s="1">
+        <v>71</v>
+      </c>
+      <c r="D15" s="1">
+        <v>74</v>
+      </c>
+      <c r="E15" s="1">
         <v>76</v>
       </c>
-      <c r="J15" t="s">
-        <v>92</v>
-      </c>
-      <c r="K15" t="s">
-        <v>77</v>
-      </c>
-      <c r="L15" t="s">
-        <v>93</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="F15" s="1">
         <v>80</v>
       </c>
-      <c r="N15" t="s">
-        <v>94</v>
-      </c>
-      <c r="O15" t="s">
-        <v>81</v>
-      </c>
-      <c r="P15" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>38</v>
-      </c>
-      <c r="R15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S15" t="s">
-        <v>9</v>
-      </c>
-      <c r="T15" t="s">
-        <v>33</v>
-      </c>
-      <c r="U15" t="s">
-        <v>14</v>
+      <c r="G15" s="1">
+        <v>82</v>
+      </c>
+      <c r="H15" s="1">
+        <v>82</v>
+      </c>
+      <c r="I15" s="1">
+        <v>84</v>
+      </c>
+      <c r="J15" s="1">
+        <v>85</v>
+      </c>
+      <c r="K15" s="1">
+        <v>86</v>
+      </c>
+      <c r="L15" s="1">
+        <v>87</v>
+      </c>
+      <c r="M15" s="1">
+        <v>88</v>
+      </c>
+      <c r="N15" s="1">
+        <v>89</v>
+      </c>
+      <c r="O15" s="1">
+        <v>90</v>
+      </c>
+      <c r="P15" s="1">
+        <v>47</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>43</v>
+      </c>
+      <c r="R15" s="1">
+        <v>40</v>
+      </c>
+      <c r="S15" s="1">
+        <v>34</v>
+      </c>
+      <c r="T15" s="1">
+        <v>27</v>
+      </c>
+      <c r="U15" s="1">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" t="s">
-        <v>90</v>
-      </c>
-      <c r="I16" t="s">
-        <v>90</v>
-      </c>
-      <c r="J16" t="s">
-        <v>90</v>
-      </c>
-      <c r="K16" t="s">
-        <v>90</v>
-      </c>
-      <c r="L16" t="s">
-        <v>90</v>
-      </c>
-      <c r="M16" t="s">
-        <v>90</v>
-      </c>
-      <c r="N16" t="s">
-        <v>90</v>
-      </c>
-      <c r="O16" t="s">
-        <v>90</v>
-      </c>
-      <c r="P16" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>40</v>
-      </c>
-      <c r="R16" t="s">
-        <v>38</v>
-      </c>
-      <c r="S16" t="s">
-        <v>11</v>
-      </c>
-      <c r="T16" t="s">
-        <v>5</v>
-      </c>
-      <c r="U16" t="s">
-        <v>22</v>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1">
+        <v>49</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>45</v>
+      </c>
+      <c r="R16" s="1">
+        <v>43</v>
+      </c>
+      <c r="S16" s="1">
+        <v>36</v>
+      </c>
+      <c r="T16" s="1">
+        <v>29</v>
+      </c>
+      <c r="U16" s="1">
+        <v>23</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2667,6 +2403,16 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <conditionalFormatting sqref="B2:O14">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>B3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:U15">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>P3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2679,10 +2425,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="26" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1">
         <v>7</v>
       </c>
@@ -2748,975 +2498,947 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1">
+        <v>34</v>
+      </c>
+      <c r="J2" s="1">
+        <v>36</v>
+      </c>
+      <c r="K2" s="1">
+        <v>38</v>
+      </c>
+      <c r="L2" s="1">
+        <v>40</v>
+      </c>
+      <c r="M2" s="1">
+        <v>42</v>
+      </c>
+      <c r="N2" s="1">
+        <v>44</v>
+      </c>
+      <c r="O2" s="1">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1">
+        <v>15</v>
+      </c>
+      <c r="S2" s="1">
+        <v>10</v>
+      </c>
+      <c r="T2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="U2" s="1">
         <v>1</v>
-      </c>
-      <c r="R2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1">
+        <v>34</v>
+      </c>
+      <c r="H3" s="1">
+        <v>36</v>
+      </c>
+      <c r="I3" s="1">
+        <v>38</v>
+      </c>
+      <c r="J3" s="1">
+        <v>40</v>
+      </c>
+      <c r="K3" s="1">
+        <v>42</v>
+      </c>
+      <c r="L3" s="1">
+        <v>44</v>
+      </c>
+      <c r="M3" s="1">
+        <v>46</v>
+      </c>
+      <c r="N3" s="1">
+        <v>48</v>
+      </c>
+      <c r="O3" s="1">
+        <v>50</v>
+      </c>
+      <c r="P3" s="1">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>21</v>
+      </c>
+      <c r="R3" s="1">
+        <v>17</v>
+      </c>
+      <c r="S3" s="1">
+        <v>12</v>
+      </c>
+      <c r="T3" s="1">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T3" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" t="s">
-        <v>31</v>
+      <c r="U3" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1">
+        <v>34</v>
+      </c>
+      <c r="F4" s="1">
+        <v>36</v>
+      </c>
+      <c r="G4" s="1">
+        <v>38</v>
+      </c>
+      <c r="H4" s="1">
+        <v>40</v>
+      </c>
+      <c r="I4" s="1">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1">
+        <v>44</v>
+      </c>
+      <c r="K4" s="1">
+        <v>46</v>
+      </c>
+      <c r="L4" s="1">
+        <v>48</v>
+      </c>
+      <c r="M4" s="1">
+        <v>50</v>
+      </c>
+      <c r="N4" s="1">
+        <v>52</v>
+      </c>
+      <c r="O4" s="1">
+        <v>54</v>
+      </c>
+      <c r="P4" s="1">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>23</v>
+      </c>
+      <c r="R4" s="1">
+        <v>19</v>
+      </c>
+      <c r="S4" s="1">
+        <v>14</v>
+      </c>
+      <c r="T4" s="1">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" t="s">
-        <v>1</v>
-      </c>
-      <c r="S4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T4" t="s">
-        <v>18</v>
-      </c>
-      <c r="U4" t="s">
-        <v>39</v>
+      <c r="U4" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="B5" s="1">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1">
+        <v>38</v>
+      </c>
+      <c r="F5" s="1">
+        <v>40</v>
+      </c>
+      <c r="G5" s="1">
+        <v>42</v>
+      </c>
+      <c r="H5" s="1">
+        <v>44</v>
+      </c>
+      <c r="I5" s="1">
+        <v>46</v>
+      </c>
+      <c r="J5" s="1">
+        <v>48</v>
+      </c>
+      <c r="K5" s="1">
+        <v>50</v>
+      </c>
+      <c r="L5" s="1">
+        <v>52</v>
+      </c>
+      <c r="M5" s="1">
+        <v>54</v>
+      </c>
+      <c r="N5" s="1">
+        <v>56</v>
+      </c>
+      <c r="O5" s="1">
+        <v>58</v>
+      </c>
+      <c r="P5" s="1">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="1">
         <v>25</v>
       </c>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="R5" s="1">
+        <v>21</v>
+      </c>
+      <c r="S5" s="1">
+        <v>16</v>
+      </c>
+      <c r="T5" s="1">
         <v>5</v>
       </c>
-      <c r="Q5" t="s">
-        <v>36</v>
-      </c>
-      <c r="R5" t="s">
-        <v>14</v>
-      </c>
-      <c r="S5" t="s">
-        <v>0</v>
-      </c>
-      <c r="T5" t="s">
-        <v>32</v>
-      </c>
-      <c r="U5" t="s">
-        <v>18</v>
+      <c r="U5" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B6" s="1">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1">
+        <v>42</v>
+      </c>
+      <c r="F6" s="1">
+        <v>44</v>
+      </c>
+      <c r="G6" s="1">
+        <v>46</v>
+      </c>
+      <c r="H6" s="1">
+        <v>48</v>
+      </c>
+      <c r="I6" s="1">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1">
+        <v>52</v>
+      </c>
+      <c r="K6" s="1">
+        <v>54</v>
+      </c>
+      <c r="L6" s="1">
+        <v>56</v>
+      </c>
+      <c r="M6" s="1">
+        <v>58</v>
+      </c>
+      <c r="N6" s="1">
+        <v>60</v>
+      </c>
+      <c r="O6" s="1">
+        <v>62</v>
+      </c>
+      <c r="P6" s="1">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>27</v>
+      </c>
+      <c r="R6" s="1">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" t="s">
-        <v>55</v>
-      </c>
-      <c r="P6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>33</v>
-      </c>
-      <c r="R6" t="s">
-        <v>22</v>
-      </c>
-      <c r="S6" t="s">
-        <v>41</v>
-      </c>
-      <c r="T6" t="s">
-        <v>42</v>
-      </c>
-      <c r="U6" t="s">
-        <v>32</v>
+      <c r="S6" s="1">
+        <v>18</v>
+      </c>
+      <c r="T6" s="1">
+        <v>6</v>
+      </c>
+      <c r="U6" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B7" s="1">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44</v>
+      </c>
+      <c r="E7" s="1">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1">
+        <v>48</v>
+      </c>
+      <c r="G7" s="1">
+        <v>50</v>
+      </c>
+      <c r="H7" s="1">
+        <v>52</v>
+      </c>
+      <c r="I7" s="1">
+        <v>54</v>
+      </c>
+      <c r="J7" s="1">
+        <v>56</v>
+      </c>
+      <c r="K7" s="1">
+        <v>58</v>
+      </c>
+      <c r="L7" s="1">
+        <v>60</v>
+      </c>
+      <c r="M7" s="1">
+        <v>62</v>
+      </c>
+      <c r="N7" s="1">
+        <v>64</v>
+      </c>
+      <c r="O7" s="1">
+        <v>66</v>
+      </c>
+      <c r="P7" s="1">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>29</v>
+      </c>
+      <c r="R7" s="1">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" t="s">
-        <v>55</v>
-      </c>
-      <c r="N7" t="s">
-        <v>58</v>
-      </c>
-      <c r="O7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P7" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>5</v>
-      </c>
-      <c r="R7" t="s">
-        <v>36</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="S7" s="1">
         <v>20</v>
       </c>
-      <c r="T7" t="s">
-        <v>48</v>
-      </c>
-      <c r="U7" t="s">
-        <v>42</v>
+      <c r="T7" s="1">
+        <v>7</v>
+      </c>
+      <c r="U7" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="B8" s="1">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1">
+        <v>46</v>
+      </c>
+      <c r="D8" s="1">
+        <v>48</v>
+      </c>
+      <c r="E8" s="1">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1">
+        <v>52</v>
+      </c>
+      <c r="G8" s="1">
+        <v>54</v>
+      </c>
+      <c r="H8" s="1">
+        <v>56</v>
+      </c>
+      <c r="I8" s="1">
+        <v>58</v>
+      </c>
+      <c r="J8" s="1">
+        <v>60</v>
+      </c>
+      <c r="K8" s="1">
+        <v>62</v>
+      </c>
+      <c r="L8" s="1">
+        <v>64</v>
+      </c>
+      <c r="M8" s="1">
+        <v>66</v>
+      </c>
+      <c r="N8" s="1">
+        <v>68</v>
+      </c>
+      <c r="O8" s="1">
+        <v>70</v>
+      </c>
+      <c r="P8" s="1">
         <v>35</v>
       </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M8" t="s">
-        <v>60</v>
-      </c>
-      <c r="N8" t="s">
-        <v>63</v>
-      </c>
-      <c r="O8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P8" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>43</v>
-      </c>
-      <c r="R8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S8" t="s">
-        <v>2</v>
-      </c>
-      <c r="T8" t="s">
-        <v>17</v>
-      </c>
-      <c r="U8" t="s">
-        <v>48</v>
+      <c r="Q8" s="1">
+        <v>31</v>
+      </c>
+      <c r="R8" s="1">
+        <v>27</v>
+      </c>
+      <c r="S8" s="1">
+        <v>22</v>
+      </c>
+      <c r="T8" s="1">
+        <v>8</v>
+      </c>
+      <c r="U8" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="B9" s="1">
+        <v>48</v>
+      </c>
+      <c r="C9" s="1">
         <v>50</v>
       </c>
-      <c r="H9" t="s">
+      <c r="D9" s="1">
+        <v>52</v>
+      </c>
+      <c r="E9" s="1">
         <v>54</v>
       </c>
-      <c r="I9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="F9" s="1">
+        <v>56</v>
+      </c>
+      <c r="G9" s="1">
         <v>58</v>
       </c>
-      <c r="K9" t="s">
+      <c r="H9" s="1">
         <v>60</v>
       </c>
-      <c r="L9" t="s">
-        <v>63</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="I9" s="1">
+        <v>62</v>
+      </c>
+      <c r="J9" s="1">
         <v>64</v>
       </c>
-      <c r="N9" t="s">
+      <c r="K9" s="1">
+        <v>66</v>
+      </c>
+      <c r="L9" s="1">
         <v>68</v>
       </c>
-      <c r="O9" t="s">
-        <v>69</v>
-      </c>
-      <c r="P9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>8</v>
-      </c>
-      <c r="R9" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" t="s">
-        <v>3</v>
-      </c>
-      <c r="T9" t="s">
+      <c r="M9" s="1">
+        <v>70</v>
+      </c>
+      <c r="N9" s="1">
+        <v>72</v>
+      </c>
+      <c r="O9" s="1">
+        <v>74</v>
+      </c>
+      <c r="P9" s="1">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>33</v>
+      </c>
+      <c r="R9" s="1">
         <v>29</v>
       </c>
-      <c r="U9" t="s">
-        <v>53</v>
+      <c r="S9" s="1">
+        <v>24</v>
+      </c>
+      <c r="T9" s="1">
+        <v>10</v>
+      </c>
+      <c r="U9" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="B10" s="1">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1">
         <v>54</v>
       </c>
-      <c r="G10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="D10" s="1">
+        <v>56</v>
+      </c>
+      <c r="E10" s="1">
         <v>58</v>
       </c>
-      <c r="I10" t="s">
+      <c r="F10" s="1">
         <v>60</v>
       </c>
-      <c r="J10" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="G10" s="1">
+        <v>62</v>
+      </c>
+      <c r="H10" s="1">
         <v>64</v>
       </c>
-      <c r="L10" t="s">
+      <c r="I10" s="1">
+        <v>66</v>
+      </c>
+      <c r="J10" s="1">
         <v>68</v>
       </c>
-      <c r="M10" t="s">
-        <v>69</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="K10" s="1">
         <v>70</v>
       </c>
-      <c r="O10" t="s">
-        <v>71</v>
-      </c>
-      <c r="P10" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="L10" s="1">
+        <v>72</v>
+      </c>
+      <c r="M10" s="1">
+        <v>74</v>
+      </c>
+      <c r="N10" s="1">
+        <v>76</v>
+      </c>
+      <c r="O10" s="1">
+        <v>78</v>
+      </c>
+      <c r="P10" s="1">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>35</v>
+      </c>
+      <c r="R10" s="1">
+        <v>31</v>
+      </c>
+      <c r="S10" s="1">
+        <v>26</v>
+      </c>
+      <c r="T10" s="1">
+        <v>12</v>
+      </c>
+      <c r="U10" s="1">
         <v>10</v>
-      </c>
-      <c r="R10" t="s">
-        <v>43</v>
-      </c>
-      <c r="S10" t="s">
-        <v>21</v>
-      </c>
-      <c r="T10" t="s">
-        <v>37</v>
-      </c>
-      <c r="U10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="B11" s="1">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1">
         <v>58</v>
       </c>
-      <c r="G11" t="s">
+      <c r="D11" s="1">
         <v>60</v>
       </c>
-      <c r="H11" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="E11" s="1">
+        <v>62</v>
+      </c>
+      <c r="F11" s="1">
         <v>64</v>
       </c>
-      <c r="J11" t="s">
+      <c r="G11" s="1">
+        <v>66</v>
+      </c>
+      <c r="H11" s="1">
         <v>68</v>
       </c>
-      <c r="K11" t="s">
-        <v>69</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="I11" s="1">
         <v>70</v>
       </c>
-      <c r="M11" t="s">
-        <v>71</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="J11" s="1">
         <v>72</v>
       </c>
-      <c r="O11" t="s">
-        <v>73</v>
-      </c>
-      <c r="P11" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R11" t="s">
-        <v>8</v>
-      </c>
-      <c r="S11" t="s">
-        <v>4</v>
-      </c>
-      <c r="T11" t="s">
-        <v>16</v>
-      </c>
-      <c r="U11" t="s">
-        <v>59</v>
+      <c r="K11" s="1">
+        <v>74</v>
+      </c>
+      <c r="L11" s="1">
+        <v>76</v>
+      </c>
+      <c r="M11" s="1">
+        <v>78</v>
+      </c>
+      <c r="N11" s="1">
+        <v>80</v>
+      </c>
+      <c r="O11" s="1">
+        <v>82</v>
+      </c>
+      <c r="P11" s="1">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>37</v>
+      </c>
+      <c r="R11" s="1">
+        <v>33</v>
+      </c>
+      <c r="S11" s="1">
+        <v>28</v>
+      </c>
+      <c r="T11" s="1">
+        <v>14</v>
+      </c>
+      <c r="U11" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="B12" s="1">
         <v>60</v>
       </c>
-      <c r="F12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="C12" s="1">
+        <v>62</v>
+      </c>
+      <c r="D12" s="1">
         <v>64</v>
       </c>
-      <c r="H12" t="s">
+      <c r="E12" s="1">
+        <v>66</v>
+      </c>
+      <c r="F12" s="1">
         <v>68</v>
       </c>
-      <c r="I12" t="s">
-        <v>69</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="G12" s="1">
         <v>70</v>
       </c>
-      <c r="K12" t="s">
-        <v>71</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="H12" s="1">
         <v>72</v>
       </c>
-      <c r="M12" t="s">
-        <v>73</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="I12" s="1">
+        <v>74</v>
+      </c>
+      <c r="J12" s="1">
         <v>76</v>
       </c>
-      <c r="O12" t="s">
-        <v>77</v>
-      </c>
-      <c r="P12" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>27</v>
-      </c>
-      <c r="R12" t="s">
-        <v>10</v>
-      </c>
-      <c r="S12" t="s">
-        <v>6</v>
-      </c>
-      <c r="T12" t="s">
-        <v>0</v>
-      </c>
-      <c r="U12" t="s">
-        <v>37</v>
+      <c r="K12" s="1">
+        <v>78</v>
+      </c>
+      <c r="L12" s="1">
+        <v>80</v>
+      </c>
+      <c r="M12" s="1">
+        <v>82</v>
+      </c>
+      <c r="N12" s="1">
+        <v>84</v>
+      </c>
+      <c r="O12" s="1">
+        <v>86</v>
+      </c>
+      <c r="P12" s="1">
+        <v>43</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>39</v>
+      </c>
+      <c r="R12" s="1">
+        <v>35</v>
+      </c>
+      <c r="S12" s="1">
+        <v>30</v>
+      </c>
+      <c r="T12" s="1">
+        <v>16</v>
+      </c>
+      <c r="U12" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="B13" s="1">
         <v>64</v>
       </c>
-      <c r="F13" t="s">
+      <c r="C13" s="1">
+        <v>66</v>
+      </c>
+      <c r="D13" s="1">
         <v>68</v>
       </c>
-      <c r="G13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="E13" s="1">
         <v>70</v>
       </c>
-      <c r="I13" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="F13" s="1">
         <v>72</v>
       </c>
-      <c r="K13" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="G13" s="1">
+        <v>74</v>
+      </c>
+      <c r="H13" s="1">
         <v>76</v>
       </c>
-      <c r="M13" t="s">
-        <v>77</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="I13" s="1">
+        <v>78</v>
+      </c>
+      <c r="J13" s="1">
         <v>80</v>
       </c>
-      <c r="O13" t="s">
-        <v>81</v>
-      </c>
-      <c r="P13" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>30</v>
-      </c>
-      <c r="R13" t="s">
-        <v>12</v>
-      </c>
-      <c r="S13" t="s">
-        <v>7</v>
-      </c>
-      <c r="T13" t="s">
+      <c r="K13" s="1">
+        <v>82</v>
+      </c>
+      <c r="L13" s="1">
+        <v>84</v>
+      </c>
+      <c r="M13" s="1">
+        <v>86</v>
+      </c>
+      <c r="N13" s="1">
+        <v>88</v>
+      </c>
+      <c r="O13" s="1">
+        <v>90</v>
+      </c>
+      <c r="P13" s="1">
+        <v>45</v>
+      </c>
+      <c r="Q13" s="1">
         <v>41</v>
       </c>
-      <c r="U13" t="s">
-        <v>65</v>
+      <c r="R13" s="1">
+        <v>37</v>
+      </c>
+      <c r="S13" s="1">
+        <v>32</v>
+      </c>
+      <c r="T13" s="1">
+        <v>18</v>
+      </c>
+      <c r="U13" s="1">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B14" s="1">
         <v>68</v>
       </c>
-      <c r="E14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="C14" s="1">
         <v>70</v>
       </c>
-      <c r="G14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="D14" s="1">
         <v>72</v>
       </c>
-      <c r="I14" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="E14" s="1">
+        <v>74</v>
+      </c>
+      <c r="F14" s="1">
         <v>76</v>
       </c>
-      <c r="K14" t="s">
-        <v>77</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="G14" s="1">
+        <v>78</v>
+      </c>
+      <c r="H14" s="1">
         <v>80</v>
       </c>
-      <c r="M14" t="s">
-        <v>81</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="I14" s="1">
+        <v>82</v>
+      </c>
+      <c r="J14" s="1">
         <v>84</v>
       </c>
-      <c r="O14" t="s">
-        <v>85</v>
-      </c>
-      <c r="P14" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>38</v>
-      </c>
-      <c r="R14" t="s">
-        <v>27</v>
-      </c>
-      <c r="S14" t="s">
-        <v>9</v>
-      </c>
-      <c r="T14" t="s">
+      <c r="K14" s="1">
+        <v>86</v>
+      </c>
+      <c r="L14" s="1">
+        <v>88</v>
+      </c>
+      <c r="M14" s="1">
+        <v>90</v>
+      </c>
+      <c r="N14" s="1">
+        <v>92</v>
+      </c>
+      <c r="O14" s="1">
+        <v>94</v>
+      </c>
+      <c r="P14" s="1">
+        <v>47</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>43</v>
+      </c>
+      <c r="R14" s="1">
+        <v>39</v>
+      </c>
+      <c r="S14" s="1">
+        <v>34</v>
+      </c>
+      <c r="T14" s="1">
         <v>20</v>
       </c>
-      <c r="U14" t="s">
-        <v>16</v>
+      <c r="U14" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="B15" s="1">
         <v>72</v>
       </c>
-      <c r="G15" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="C15" s="1">
+        <v>74</v>
+      </c>
+      <c r="D15" s="1">
         <v>76</v>
       </c>
-      <c r="I15" t="s">
-        <v>77</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="E15" s="1">
+        <v>78</v>
+      </c>
+      <c r="F15" s="1">
         <v>80</v>
       </c>
-      <c r="K15" t="s">
-        <v>81</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="G15" s="1">
+        <v>82</v>
+      </c>
+      <c r="H15" s="1">
         <v>84</v>
       </c>
-      <c r="M15" t="s">
-        <v>85</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="I15" s="1">
+        <v>86</v>
+      </c>
+      <c r="J15" s="1">
         <v>88</v>
       </c>
-      <c r="O15" t="s">
-        <v>89</v>
-      </c>
-      <c r="P15" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>40</v>
-      </c>
-      <c r="R15" t="s">
-        <v>24</v>
-      </c>
-      <c r="S15" t="s">
-        <v>11</v>
-      </c>
-      <c r="T15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U15" t="s">
-        <v>28</v>
+      <c r="K15" s="1">
+        <v>90</v>
+      </c>
+      <c r="L15" s="1">
+        <v>92</v>
+      </c>
+      <c r="M15" s="1">
+        <v>94</v>
+      </c>
+      <c r="N15" s="1">
+        <v>96</v>
+      </c>
+      <c r="O15" s="1">
+        <v>98</v>
+      </c>
+      <c r="P15" s="1">
+        <v>49</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>45</v>
+      </c>
+      <c r="R15" s="1">
+        <v>42</v>
+      </c>
+      <c r="S15" s="1">
+        <v>36</v>
+      </c>
+      <c r="T15" s="1">
+        <v>22</v>
+      </c>
+      <c r="U15" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" t="s">
-        <v>90</v>
-      </c>
-      <c r="I16" t="s">
-        <v>90</v>
-      </c>
-      <c r="J16" t="s">
-        <v>90</v>
-      </c>
-      <c r="K16" t="s">
-        <v>90</v>
-      </c>
-      <c r="L16" t="s">
-        <v>90</v>
-      </c>
-      <c r="M16" t="s">
-        <v>90</v>
-      </c>
-      <c r="N16" t="s">
-        <v>90</v>
-      </c>
-      <c r="O16" t="s">
-        <v>90</v>
-      </c>
-      <c r="P16" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1">
         <v>51</v>
       </c>
-      <c r="Q16" t="s">
-        <v>46</v>
-      </c>
-      <c r="R16" t="s">
-        <v>40</v>
-      </c>
-      <c r="S16" t="s">
-        <v>13</v>
-      </c>
-      <c r="T16" t="s">
-        <v>3</v>
-      </c>
-      <c r="U16" t="s">
-        <v>0</v>
+      <c r="Q16" s="1">
+        <v>47</v>
+      </c>
+      <c r="R16" s="1">
+        <v>45</v>
+      </c>
+      <c r="S16" s="1">
+        <v>38</v>
+      </c>
+      <c r="T16" s="1">
+        <v>24</v>
+      </c>
+      <c r="U16" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4704,6 +4426,16 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <conditionalFormatting sqref="B2:O14">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>B3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:U15">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>P3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/xlsx/motor-4-torso.xlsx
+++ b/xlsx/motor-4-torso.xlsx
@@ -58,7 +58,107 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2403,14 +2503,19 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B2:O14">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="B2:O2">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="greaterThan">
       <formula>B3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:U15">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="P2:U2">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
       <formula>P3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:U15 P16:U16">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThanOrEqual">
+      <formula>B2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4426,14 +4531,19 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B2:O14">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="B2:O2">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
       <formula>B3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:U15">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="P2:U2">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
       <formula>P3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:U15 P16:U16">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThanOrEqual">
+      <formula>B2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/motor-4-torso.xlsx
+++ b/xlsx/motor-4-torso.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="540" windowWidth="27495" windowHeight="12210"/>
+    <workbookView xWindow="20370" yWindow="0" windowWidth="21570" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="lányok" sheetId="1" r:id="rId1"/>
     <sheet name="fiúk" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -58,57 +58,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -204,6 +154,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -496,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1000"/>
+  <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -506,1015 +459,1136 @@
     <col min="2" max="26" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
+        <v>4</v>
+      </c>
+      <c r="C1">
+        <v>5</v>
+      </c>
+      <c r="D1">
+        <v>6</v>
+      </c>
+      <c r="E1">
         <v>7</v>
       </c>
-      <c r="C1">
+      <c r="F1">
         <v>8</v>
       </c>
-      <c r="D1">
+      <c r="G1">
         <v>9</v>
       </c>
-      <c r="E1">
+      <c r="H1">
         <v>10</v>
       </c>
-      <c r="F1">
+      <c r="I1">
         <v>11</v>
       </c>
-      <c r="G1">
+      <c r="J1">
         <v>12</v>
       </c>
-      <c r="H1">
+      <c r="K1">
         <v>13</v>
       </c>
-      <c r="I1">
+      <c r="L1">
         <v>14</v>
       </c>
-      <c r="J1">
+      <c r="M1">
         <v>15</v>
       </c>
-      <c r="K1">
+      <c r="N1">
         <v>16</v>
       </c>
-      <c r="L1">
+      <c r="O1">
         <v>17</v>
       </c>
-      <c r="M1">
+      <c r="P1">
         <v>18</v>
       </c>
-      <c r="N1">
+      <c r="Q1">
         <v>19</v>
       </c>
-      <c r="O1">
+      <c r="R1">
         <v>20</v>
       </c>
-      <c r="P1">
+      <c r="S1">
         <v>26</v>
       </c>
-      <c r="Q1">
+      <c r="T1">
         <v>36</v>
       </c>
-      <c r="R1">
+      <c r="U1">
         <v>46</v>
       </c>
-      <c r="S1">
+      <c r="V1">
         <v>56</v>
       </c>
-      <c r="T1">
+      <c r="W1">
         <v>66</v>
       </c>
-      <c r="U1">
+      <c r="X1">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1">
         <v>16</v>
       </c>
-      <c r="C2" s="1">
+      <c r="F2" s="1">
         <v>19</v>
       </c>
-      <c r="D2" s="1">
+      <c r="G2" s="1">
         <v>22</v>
       </c>
-      <c r="E2" s="1">
+      <c r="H2" s="1">
         <v>24</v>
       </c>
-      <c r="F2" s="1">
+      <c r="I2" s="1">
         <v>28</v>
       </c>
-      <c r="G2" s="1">
+      <c r="J2" s="1">
         <v>29</v>
       </c>
-      <c r="H2" s="1">
+      <c r="K2" s="1">
         <v>30</v>
       </c>
-      <c r="I2" s="1">
+      <c r="L2" s="1">
         <v>32</v>
       </c>
-      <c r="J2" s="1">
+      <c r="M2" s="1">
         <v>33</v>
       </c>
-      <c r="K2" s="1">
+      <c r="N2" s="1">
         <v>34</v>
       </c>
-      <c r="L2" s="1">
+      <c r="O2" s="1">
         <v>35</v>
       </c>
-      <c r="M2" s="1">
+      <c r="P2" s="1">
         <v>36</v>
       </c>
-      <c r="N2" s="1">
+      <c r="Q2" s="1">
         <v>37</v>
       </c>
-      <c r="O2" s="1">
+      <c r="R2" s="1">
         <v>38</v>
       </c>
-      <c r="P2" s="1">
+      <c r="S2" s="1">
         <v>21</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="T2" s="1">
         <v>17</v>
       </c>
-      <c r="R2" s="1">
+      <c r="U2" s="1">
         <v>14</v>
       </c>
-      <c r="S2" s="1">
+      <c r="V2" s="1">
         <v>8</v>
       </c>
-      <c r="T2" s="1">
+      <c r="W2" s="1">
         <v>4</v>
       </c>
-      <c r="U2" s="1">
+      <c r="X2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
         <v>20</v>
       </c>
-      <c r="C3" s="1">
+      <c r="F3">
         <v>23</v>
       </c>
-      <c r="D3" s="1">
+      <c r="G3">
         <v>26</v>
       </c>
-      <c r="E3" s="1">
+      <c r="H3">
         <v>28</v>
       </c>
-      <c r="F3" s="1">
+      <c r="I3">
         <v>32</v>
       </c>
-      <c r="G3" s="1">
+      <c r="J3">
         <v>33</v>
       </c>
-      <c r="H3" s="1">
+      <c r="K3">
         <v>34</v>
       </c>
-      <c r="I3" s="1">
+      <c r="L3">
         <v>36</v>
       </c>
-      <c r="J3" s="1">
+      <c r="M3">
         <v>37</v>
       </c>
-      <c r="K3" s="1">
+      <c r="N3">
         <v>38</v>
       </c>
-      <c r="L3" s="1">
+      <c r="O3">
         <v>39</v>
       </c>
-      <c r="M3" s="1">
+      <c r="P3">
         <v>40</v>
       </c>
-      <c r="N3" s="1">
+      <c r="Q3">
         <v>41</v>
       </c>
-      <c r="O3" s="1">
+      <c r="R3">
         <v>42</v>
       </c>
-      <c r="P3" s="1">
+      <c r="S3">
         <v>23</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="T3">
         <v>19</v>
       </c>
-      <c r="R3" s="1">
+      <c r="U3">
         <v>16</v>
       </c>
-      <c r="S3" s="1">
+      <c r="V3">
         <v>10</v>
       </c>
-      <c r="T3" s="1">
+      <c r="W3">
         <v>5</v>
       </c>
-      <c r="U3" s="1">
+      <c r="X3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
         <v>24</v>
       </c>
-      <c r="C4" s="1">
+      <c r="F4">
         <v>27</v>
       </c>
-      <c r="D4" s="1">
+      <c r="G4">
         <v>30</v>
       </c>
-      <c r="E4" s="1">
+      <c r="H4">
         <v>32</v>
       </c>
-      <c r="F4" s="1">
+      <c r="I4">
         <v>36</v>
       </c>
-      <c r="G4" s="1">
+      <c r="J4">
         <v>37</v>
       </c>
-      <c r="H4" s="1">
+      <c r="K4">
         <v>38</v>
       </c>
-      <c r="I4" s="1">
+      <c r="L4">
         <v>40</v>
       </c>
-      <c r="J4" s="1">
+      <c r="M4">
         <v>41</v>
       </c>
-      <c r="K4" s="1">
+      <c r="N4">
         <v>42</v>
       </c>
-      <c r="L4" s="1">
+      <c r="O4">
         <v>43</v>
       </c>
-      <c r="M4" s="1">
+      <c r="P4">
         <v>44</v>
       </c>
-      <c r="N4" s="1">
+      <c r="Q4">
         <v>45</v>
       </c>
-      <c r="O4" s="1">
+      <c r="R4">
         <v>46</v>
       </c>
-      <c r="P4" s="1">
+      <c r="S4">
         <v>25</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="T4">
         <v>21</v>
       </c>
-      <c r="R4" s="1">
+      <c r="U4">
         <v>18</v>
       </c>
-      <c r="S4" s="1">
+      <c r="V4">
         <v>12</v>
       </c>
-      <c r="T4" s="1">
+      <c r="W4">
         <v>6</v>
       </c>
-      <c r="U4" s="1">
+      <c r="X4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>18</v>
+      </c>
+      <c r="E5">
         <v>28</v>
       </c>
-      <c r="C5" s="1">
+      <c r="F5">
         <v>31</v>
       </c>
-      <c r="D5" s="1">
+      <c r="G5">
         <v>34</v>
       </c>
-      <c r="E5" s="1">
+      <c r="H5">
         <v>36</v>
       </c>
-      <c r="F5" s="1">
+      <c r="I5">
         <v>40</v>
       </c>
-      <c r="G5" s="1">
+      <c r="J5">
         <v>41</v>
       </c>
-      <c r="H5" s="1">
+      <c r="K5">
         <v>42</v>
       </c>
-      <c r="I5" s="1">
+      <c r="L5">
         <v>44</v>
       </c>
-      <c r="J5" s="1">
+      <c r="M5">
         <v>45</v>
       </c>
-      <c r="K5" s="1">
+      <c r="N5">
         <v>46</v>
       </c>
-      <c r="L5" s="1">
+      <c r="O5">
         <v>47</v>
       </c>
-      <c r="M5" s="1">
+      <c r="P5">
         <v>48</v>
       </c>
-      <c r="N5" s="1">
+      <c r="Q5">
         <v>49</v>
       </c>
-      <c r="O5" s="1">
+      <c r="R5">
         <v>50</v>
       </c>
-      <c r="P5" s="1">
+      <c r="S5">
         <v>27</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="T5">
         <v>23</v>
       </c>
-      <c r="R5" s="1">
+      <c r="U5">
         <v>20</v>
       </c>
-      <c r="S5" s="1">
+      <c r="V5">
         <v>14</v>
       </c>
-      <c r="T5" s="1">
+      <c r="W5">
         <v>7</v>
       </c>
-      <c r="U5" s="1">
+      <c r="X5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>22</v>
+      </c>
+      <c r="E6">
         <v>32</v>
       </c>
-      <c r="C6" s="1">
+      <c r="F6">
         <v>35</v>
       </c>
-      <c r="D6" s="1">
+      <c r="G6">
         <v>38</v>
       </c>
-      <c r="E6" s="1">
+      <c r="H6">
         <v>40</v>
       </c>
-      <c r="F6" s="1">
+      <c r="I6">
         <v>44</v>
       </c>
-      <c r="G6" s="1">
+      <c r="J6">
         <v>45</v>
       </c>
-      <c r="H6" s="1">
+      <c r="K6">
         <v>46</v>
       </c>
-      <c r="I6" s="1">
+      <c r="L6">
         <v>48</v>
       </c>
-      <c r="J6" s="1">
+      <c r="M6">
         <v>49</v>
       </c>
-      <c r="K6" s="1">
+      <c r="N6">
         <v>50</v>
       </c>
-      <c r="L6" s="1">
+      <c r="O6">
         <v>51</v>
       </c>
-      <c r="M6" s="1">
+      <c r="P6">
         <v>52</v>
       </c>
-      <c r="N6" s="1">
+      <c r="Q6">
         <v>53</v>
       </c>
-      <c r="O6" s="1">
+      <c r="R6">
         <v>54</v>
       </c>
-      <c r="P6" s="1">
+      <c r="S6">
         <v>29</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="T6">
         <v>25</v>
       </c>
-      <c r="R6" s="1">
+      <c r="U6">
         <v>22</v>
       </c>
-      <c r="S6" s="1">
+      <c r="V6">
         <v>16</v>
       </c>
-      <c r="T6" s="1">
+      <c r="W6">
         <v>9</v>
       </c>
-      <c r="U6" s="1">
+      <c r="X6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>26</v>
+      </c>
+      <c r="E7">
         <v>36</v>
       </c>
-      <c r="C7" s="1">
+      <c r="F7">
         <v>39</v>
       </c>
-      <c r="D7" s="1">
+      <c r="G7">
         <v>42</v>
       </c>
-      <c r="E7" s="1">
+      <c r="H7">
         <v>44</v>
       </c>
-      <c r="F7" s="1">
+      <c r="I7">
         <v>48</v>
       </c>
-      <c r="G7" s="1">
+      <c r="J7">
         <v>49</v>
       </c>
-      <c r="H7" s="1">
+      <c r="K7">
         <v>50</v>
       </c>
-      <c r="I7" s="1">
+      <c r="L7">
         <v>52</v>
       </c>
-      <c r="J7" s="1">
+      <c r="M7">
         <v>53</v>
       </c>
-      <c r="K7" s="1">
+      <c r="N7">
         <v>54</v>
       </c>
-      <c r="L7" s="1">
+      <c r="O7">
         <v>55</v>
       </c>
-      <c r="M7" s="1">
+      <c r="P7">
         <v>56</v>
       </c>
-      <c r="N7" s="1">
+      <c r="Q7">
         <v>57</v>
       </c>
-      <c r="O7" s="1">
+      <c r="R7">
         <v>58</v>
       </c>
-      <c r="P7" s="1">
+      <c r="S7">
         <v>31</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="T7">
         <v>27</v>
       </c>
-      <c r="R7" s="1">
+      <c r="U7">
         <v>24</v>
       </c>
-      <c r="S7" s="1">
+      <c r="V7">
         <v>18</v>
       </c>
-      <c r="T7" s="1">
+      <c r="W7">
         <v>11</v>
       </c>
-      <c r="U7" s="1">
+      <c r="X7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
         <v>40</v>
       </c>
-      <c r="C8" s="1">
+      <c r="F8">
         <v>43</v>
       </c>
-      <c r="D8" s="1">
+      <c r="G8">
         <v>46</v>
       </c>
-      <c r="E8" s="1">
+      <c r="H8">
         <v>48</v>
       </c>
-      <c r="F8" s="1">
+      <c r="I8">
         <v>52</v>
       </c>
-      <c r="G8" s="1">
+      <c r="J8">
         <v>53</v>
       </c>
-      <c r="H8" s="1">
+      <c r="K8">
         <v>54</v>
       </c>
-      <c r="I8" s="1">
+      <c r="L8">
         <v>56</v>
       </c>
-      <c r="J8" s="1">
+      <c r="M8">
         <v>57</v>
       </c>
-      <c r="K8" s="1">
+      <c r="N8">
         <v>58</v>
       </c>
-      <c r="L8" s="1">
+      <c r="O8">
         <v>59</v>
       </c>
-      <c r="M8" s="1">
+      <c r="P8">
         <v>60</v>
       </c>
-      <c r="N8" s="1">
+      <c r="Q8">
         <v>61</v>
       </c>
-      <c r="O8" s="1">
+      <c r="R8">
         <v>62</v>
       </c>
-      <c r="P8" s="1">
+      <c r="S8">
         <v>33</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="T8">
         <v>29</v>
       </c>
-      <c r="R8" s="1">
+      <c r="U8">
         <v>26</v>
       </c>
-      <c r="S8" s="1">
+      <c r="V8">
         <v>20</v>
       </c>
-      <c r="T8" s="1">
+      <c r="W8">
         <v>13</v>
       </c>
-      <c r="U8" s="1">
+      <c r="X8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>33</v>
+      </c>
+      <c r="D9">
+        <v>34</v>
+      </c>
+      <c r="E9">
         <v>44</v>
       </c>
-      <c r="C9" s="1">
+      <c r="F9">
         <v>47</v>
       </c>
-      <c r="D9" s="1">
+      <c r="G9">
         <v>50</v>
       </c>
-      <c r="E9" s="1">
+      <c r="H9">
         <v>52</v>
       </c>
-      <c r="F9" s="1">
+      <c r="I9">
         <v>56</v>
       </c>
-      <c r="G9" s="1">
+      <c r="J9">
         <v>57</v>
       </c>
-      <c r="H9" s="1">
+      <c r="K9">
         <v>58</v>
       </c>
-      <c r="I9" s="1">
+      <c r="L9">
         <v>60</v>
       </c>
-      <c r="J9" s="1">
+      <c r="M9">
         <v>61</v>
       </c>
-      <c r="K9" s="1">
+      <c r="N9">
         <v>62</v>
       </c>
-      <c r="L9" s="1">
+      <c r="O9">
         <v>63</v>
       </c>
-      <c r="M9" s="1">
+      <c r="P9">
         <v>64</v>
       </c>
-      <c r="N9" s="1">
+      <c r="Q9">
         <v>65</v>
       </c>
-      <c r="O9" s="1">
+      <c r="R9">
         <v>66</v>
       </c>
-      <c r="P9" s="1">
+      <c r="S9">
         <v>35</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="T9">
         <v>31</v>
       </c>
-      <c r="R9" s="1">
+      <c r="U9">
         <v>28</v>
       </c>
-      <c r="S9" s="1">
+      <c r="V9">
         <v>22</v>
       </c>
-      <c r="T9" s="1">
+      <c r="W9">
         <v>15</v>
       </c>
-      <c r="U9" s="1">
+      <c r="X9">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>37</v>
+      </c>
+      <c r="D10">
+        <v>38</v>
+      </c>
+      <c r="E10">
         <v>48</v>
       </c>
-      <c r="C10" s="1">
+      <c r="F10">
         <v>51</v>
       </c>
-      <c r="D10" s="1">
+      <c r="G10">
         <v>56</v>
       </c>
-      <c r="E10" s="1">
+      <c r="H10">
         <v>56</v>
       </c>
-      <c r="F10" s="1">
+      <c r="I10">
         <v>60</v>
       </c>
-      <c r="G10" s="1">
+      <c r="J10">
         <v>61</v>
       </c>
-      <c r="H10" s="1">
+      <c r="K10">
         <v>62</v>
       </c>
-      <c r="I10" s="1">
+      <c r="L10">
         <v>64</v>
       </c>
-      <c r="J10" s="1">
+      <c r="M10">
         <v>65</v>
       </c>
-      <c r="K10" s="1">
+      <c r="N10">
         <v>66</v>
       </c>
-      <c r="L10" s="1">
+      <c r="O10">
         <v>67</v>
       </c>
-      <c r="M10" s="1">
+      <c r="P10">
         <v>68</v>
       </c>
-      <c r="N10" s="1">
+      <c r="Q10">
         <v>69</v>
       </c>
-      <c r="O10" s="1">
+      <c r="R10">
         <v>70</v>
       </c>
-      <c r="P10" s="1">
+      <c r="S10">
         <v>37</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="T10">
         <v>33</v>
       </c>
-      <c r="R10" s="1">
+      <c r="U10">
         <v>30</v>
       </c>
-      <c r="S10" s="1">
+      <c r="V10">
         <v>24</v>
       </c>
-      <c r="T10" s="1">
+      <c r="W10">
         <v>17</v>
       </c>
-      <c r="U10" s="1">
+      <c r="X10">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>41</v>
+      </c>
+      <c r="D11">
+        <v>42</v>
+      </c>
+      <c r="E11">
         <v>52</v>
       </c>
-      <c r="C11" s="1">
+      <c r="F11">
         <v>55</v>
       </c>
-      <c r="D11" s="1">
+      <c r="G11">
         <v>58</v>
       </c>
-      <c r="E11" s="1">
+      <c r="H11">
         <v>60</v>
       </c>
-      <c r="F11" s="1">
+      <c r="I11">
         <v>64</v>
       </c>
-      <c r="G11" s="1">
+      <c r="J11">
         <v>65</v>
       </c>
-      <c r="H11" s="1">
+      <c r="K11">
         <v>66</v>
       </c>
-      <c r="I11" s="1">
+      <c r="L11">
         <v>68</v>
       </c>
-      <c r="J11" s="1">
+      <c r="M11">
         <v>69</v>
       </c>
-      <c r="K11" s="1">
+      <c r="N11">
         <v>70</v>
       </c>
-      <c r="L11" s="1">
+      <c r="O11">
         <v>71</v>
       </c>
-      <c r="M11" s="1">
+      <c r="P11">
         <v>72</v>
       </c>
-      <c r="N11" s="1">
+      <c r="Q11">
         <v>73</v>
       </c>
-      <c r="O11" s="1">
+      <c r="R11">
         <v>74</v>
       </c>
-      <c r="P11" s="1">
+      <c r="S11">
         <v>39</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="T11">
         <v>35</v>
       </c>
-      <c r="R11" s="1">
+      <c r="U11">
         <v>32</v>
       </c>
-      <c r="S11" s="1">
+      <c r="V11">
         <v>26</v>
       </c>
-      <c r="T11" s="1">
+      <c r="W11">
         <v>19</v>
       </c>
-      <c r="U11" s="1">
+      <c r="X11">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
+        <v>44</v>
+      </c>
+      <c r="C12">
+        <v>45</v>
+      </c>
+      <c r="D12">
+        <v>46</v>
+      </c>
+      <c r="E12">
         <v>56</v>
       </c>
-      <c r="C12" s="1">
+      <c r="F12">
         <v>59</v>
       </c>
-      <c r="D12" s="1">
+      <c r="G12">
         <v>62</v>
       </c>
-      <c r="E12" s="1">
+      <c r="H12">
         <v>64</v>
       </c>
-      <c r="F12" s="1">
+      <c r="I12">
         <v>68</v>
       </c>
-      <c r="G12" s="1">
+      <c r="J12">
         <v>69</v>
       </c>
-      <c r="H12" s="1">
+      <c r="K12">
         <v>70</v>
       </c>
-      <c r="I12" s="1">
+      <c r="L12">
         <v>72</v>
       </c>
-      <c r="J12" s="1">
+      <c r="M12">
         <v>73</v>
       </c>
-      <c r="K12" s="1">
+      <c r="N12">
         <v>74</v>
       </c>
-      <c r="L12" s="1">
+      <c r="O12">
         <v>75</v>
       </c>
-      <c r="M12" s="1">
+      <c r="P12">
         <v>76</v>
       </c>
-      <c r="N12" s="1">
+      <c r="Q12">
         <v>77</v>
       </c>
-      <c r="O12" s="1">
+      <c r="R12">
         <v>78</v>
       </c>
-      <c r="P12" s="1">
+      <c r="S12">
         <v>41</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="T12">
         <v>37</v>
       </c>
-      <c r="R12" s="1">
+      <c r="U12">
         <v>34</v>
       </c>
-      <c r="S12" s="1">
+      <c r="V12">
         <v>28</v>
       </c>
-      <c r="T12" s="1">
+      <c r="W12">
         <v>21</v>
       </c>
-      <c r="U12" s="1">
+      <c r="X12">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
+        <v>48</v>
+      </c>
+      <c r="C13">
+        <v>49</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13">
         <v>60</v>
       </c>
-      <c r="C13" s="1">
+      <c r="F13">
         <v>63</v>
       </c>
-      <c r="D13" s="1">
+      <c r="G13">
         <v>66</v>
       </c>
-      <c r="E13" s="1">
+      <c r="H13">
         <v>68</v>
       </c>
-      <c r="F13" s="1">
+      <c r="I13">
         <v>72</v>
       </c>
-      <c r="G13" s="1">
+      <c r="J13">
         <v>73</v>
       </c>
-      <c r="H13" s="1">
+      <c r="K13">
         <v>74</v>
       </c>
-      <c r="I13" s="1">
+      <c r="L13">
         <v>76</v>
       </c>
-      <c r="J13" s="1">
+      <c r="M13">
         <v>77</v>
       </c>
-      <c r="K13" s="1">
+      <c r="N13">
         <v>78</v>
       </c>
-      <c r="L13" s="1">
+      <c r="O13">
         <v>79</v>
       </c>
-      <c r="M13" s="1">
+      <c r="P13">
         <v>80</v>
       </c>
-      <c r="N13" s="1">
+      <c r="Q13">
         <v>81</v>
       </c>
-      <c r="O13" s="1">
+      <c r="R13">
         <v>82</v>
       </c>
-      <c r="P13" s="1">
+      <c r="S13">
         <v>43</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="T13">
         <v>39</v>
       </c>
-      <c r="R13" s="1">
+      <c r="U13">
         <v>36</v>
       </c>
-      <c r="S13" s="1">
+      <c r="V13">
         <v>30</v>
       </c>
-      <c r="T13" s="1">
+      <c r="W13">
         <v>23</v>
       </c>
-      <c r="U13" s="1">
+      <c r="X13">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
+        <v>52</v>
+      </c>
+      <c r="C14">
+        <v>53</v>
+      </c>
+      <c r="D14">
+        <v>54</v>
+      </c>
+      <c r="E14">
         <v>64</v>
       </c>
-      <c r="C14" s="1">
+      <c r="F14">
         <v>67</v>
       </c>
-      <c r="D14" s="1">
+      <c r="G14">
         <v>70</v>
       </c>
-      <c r="E14" s="1">
+      <c r="H14">
         <v>72</v>
       </c>
-      <c r="F14" s="1">
+      <c r="I14">
         <v>76</v>
       </c>
-      <c r="G14" s="1">
+      <c r="J14">
         <v>77</v>
       </c>
-      <c r="H14" s="1">
+      <c r="K14">
         <v>78</v>
       </c>
-      <c r="I14" s="1">
+      <c r="L14">
         <v>80</v>
       </c>
-      <c r="J14" s="1">
+      <c r="M14">
         <v>81</v>
       </c>
-      <c r="K14" s="1">
+      <c r="N14">
         <v>82</v>
       </c>
-      <c r="L14" s="1">
+      <c r="O14">
         <v>83</v>
       </c>
-      <c r="M14" s="1">
+      <c r="P14">
         <v>84</v>
       </c>
-      <c r="N14" s="1">
+      <c r="Q14">
         <v>85</v>
       </c>
-      <c r="O14" s="1">
+      <c r="R14">
         <v>86</v>
       </c>
-      <c r="P14" s="1">
+      <c r="S14">
         <v>45</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="T14">
         <v>41</v>
       </c>
-      <c r="R14" s="1">
+      <c r="U14">
         <v>38</v>
       </c>
-      <c r="S14" s="1">
+      <c r="V14">
         <v>32</v>
       </c>
-      <c r="T14" s="1">
+      <c r="W14">
         <v>25</v>
       </c>
-      <c r="U14" s="1">
+      <c r="X14">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
+        <v>56</v>
+      </c>
+      <c r="C15">
+        <v>57</v>
+      </c>
+      <c r="D15">
+        <v>58</v>
+      </c>
+      <c r="E15">
         <v>68</v>
       </c>
-      <c r="C15" s="1">
+      <c r="F15">
         <v>71</v>
       </c>
-      <c r="D15" s="1">
+      <c r="G15">
         <v>74</v>
       </c>
-      <c r="E15" s="1">
+      <c r="H15">
         <v>76</v>
       </c>
-      <c r="F15" s="1">
+      <c r="I15">
         <v>80</v>
       </c>
-      <c r="G15" s="1">
+      <c r="J15">
         <v>82</v>
       </c>
-      <c r="H15" s="1">
-        <v>82</v>
-      </c>
-      <c r="I15" s="1">
+      <c r="K15">
+        <v>83</v>
+      </c>
+      <c r="L15">
         <v>84</v>
       </c>
-      <c r="J15" s="1">
+      <c r="M15">
         <v>85</v>
       </c>
-      <c r="K15" s="1">
+      <c r="N15">
         <v>86</v>
       </c>
-      <c r="L15" s="1">
+      <c r="O15">
         <v>87</v>
       </c>
-      <c r="M15" s="1">
+      <c r="P15">
         <v>88</v>
       </c>
-      <c r="N15" s="1">
+      <c r="Q15">
         <v>89</v>
       </c>
-      <c r="O15" s="1">
+      <c r="R15">
         <v>90</v>
       </c>
-      <c r="P15" s="1">
+      <c r="S15">
         <v>47</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="T15">
         <v>43</v>
       </c>
-      <c r="R15" s="1">
+      <c r="U15">
         <v>40</v>
       </c>
-      <c r="S15" s="1">
+      <c r="V15">
         <v>34</v>
       </c>
-      <c r="T15" s="1">
+      <c r="W15">
         <v>27</v>
       </c>
-      <c r="U15" s="1">
+      <c r="X15">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1">
+      <c r="S16">
         <v>49</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="T16">
         <v>45</v>
       </c>
-      <c r="R16" s="1">
+      <c r="U16">
         <v>43</v>
       </c>
-      <c r="S16" s="1">
+      <c r="V16">
         <v>36</v>
       </c>
-      <c r="T16" s="1">
+      <c r="W16">
         <v>29</v>
       </c>
-      <c r="U16" s="1">
+      <c r="X16">
         <v>23</v>
       </c>
     </row>
@@ -2503,18 +2577,21 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B2:O2">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="greaterThan">
-      <formula>B3</formula>
+  <conditionalFormatting sqref="E2:R2">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="greaterThan">
+      <formula>E3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:U2">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
-      <formula>P3</formula>
+  <conditionalFormatting sqref="S2:X2">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="greaterThan">
+      <formula>S3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:U15 P16:U16">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="B3:X16">
+    <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThanOrEqual">
       <formula>B2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2524,7 +2601,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1000"/>
+  <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2534,1016 +2611,1137 @@
     <col min="2" max="26" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
+        <v>4</v>
+      </c>
+      <c r="C1">
+        <v>5</v>
+      </c>
+      <c r="D1">
+        <v>6</v>
+      </c>
+      <c r="E1">
         <v>7</v>
       </c>
-      <c r="C1">
+      <c r="F1">
         <v>8</v>
       </c>
-      <c r="D1">
+      <c r="G1">
         <v>9</v>
       </c>
-      <c r="E1">
+      <c r="H1">
         <v>10</v>
       </c>
-      <c r="F1">
+      <c r="I1">
         <v>11</v>
       </c>
-      <c r="G1">
+      <c r="J1">
         <v>12</v>
       </c>
-      <c r="H1">
+      <c r="K1">
         <v>13</v>
       </c>
-      <c r="I1">
+      <c r="L1">
         <v>14</v>
       </c>
-      <c r="J1">
+      <c r="M1">
         <v>15</v>
       </c>
-      <c r="K1">
+      <c r="N1">
         <v>16</v>
       </c>
-      <c r="L1">
+      <c r="O1">
         <v>17</v>
       </c>
-      <c r="M1">
+      <c r="P1">
         <v>18</v>
       </c>
-      <c r="N1">
+      <c r="Q1">
         <v>19</v>
       </c>
-      <c r="O1">
+      <c r="R1">
         <v>20</v>
       </c>
-      <c r="P1">
+      <c r="S1">
         <v>26</v>
       </c>
-      <c r="Q1">
+      <c r="T1">
         <v>36</v>
       </c>
-      <c r="R1">
+      <c r="U1">
         <v>46</v>
       </c>
-      <c r="S1">
+      <c r="V1">
         <v>56</v>
       </c>
-      <c r="T1">
+      <c r="W1">
         <v>66</v>
       </c>
-      <c r="U1">
+      <c r="X1">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
         <v>20</v>
       </c>
-      <c r="C2" s="1">
+      <c r="F2" s="1">
         <v>22</v>
       </c>
-      <c r="D2" s="1">
+      <c r="G2" s="1">
         <v>24</v>
       </c>
-      <c r="E2" s="1">
+      <c r="H2" s="1">
         <v>26</v>
       </c>
-      <c r="F2" s="1">
+      <c r="I2" s="1">
         <v>28</v>
       </c>
-      <c r="G2" s="1">
+      <c r="J2" s="1">
         <v>30</v>
       </c>
-      <c r="H2" s="1">
+      <c r="K2" s="1">
         <v>32</v>
       </c>
-      <c r="I2" s="1">
+      <c r="L2" s="1">
         <v>34</v>
       </c>
-      <c r="J2" s="1">
+      <c r="M2" s="1">
         <v>36</v>
       </c>
-      <c r="K2" s="1">
+      <c r="N2" s="1">
         <v>38</v>
       </c>
-      <c r="L2" s="1">
+      <c r="O2" s="1">
         <v>40</v>
       </c>
-      <c r="M2" s="1">
+      <c r="P2" s="1">
         <v>42</v>
       </c>
-      <c r="N2" s="1">
+      <c r="Q2" s="1">
         <v>44</v>
       </c>
-      <c r="O2" s="1">
+      <c r="R2" s="1">
         <v>46</v>
       </c>
-      <c r="P2" s="1">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>19</v>
-      </c>
-      <c r="R2" s="1">
-        <v>15</v>
-      </c>
       <c r="S2" s="1">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="T2" s="1">
+        <v>26</v>
+      </c>
+      <c r="U2" s="1">
+        <v>21</v>
+      </c>
+      <c r="V2" s="1">
+        <v>14</v>
+      </c>
+      <c r="W2" s="1">
+        <v>9</v>
+      </c>
+      <c r="X2" s="1">
         <v>2</v>
       </c>
-      <c r="U2" s="1">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
         <v>24</v>
       </c>
-      <c r="C3" s="1">
+      <c r="F3">
         <v>26</v>
       </c>
-      <c r="D3" s="1">
+      <c r="G3">
         <v>28</v>
       </c>
-      <c r="E3" s="1">
+      <c r="H3">
         <v>30</v>
       </c>
-      <c r="F3" s="1">
+      <c r="I3">
         <v>32</v>
       </c>
-      <c r="G3" s="1">
+      <c r="J3">
         <v>34</v>
       </c>
-      <c r="H3" s="1">
+      <c r="K3">
         <v>36</v>
       </c>
-      <c r="I3" s="1">
+      <c r="L3">
         <v>38</v>
       </c>
-      <c r="J3" s="1">
+      <c r="M3">
         <v>40</v>
       </c>
-      <c r="K3" s="1">
+      <c r="N3">
         <v>42</v>
       </c>
-      <c r="L3" s="1">
+      <c r="O3">
         <v>44</v>
       </c>
-      <c r="M3" s="1">
+      <c r="P3">
         <v>46</v>
       </c>
-      <c r="N3" s="1">
+      <c r="Q3">
         <v>48</v>
       </c>
-      <c r="O3" s="1">
+      <c r="R3">
         <v>50</v>
       </c>
-      <c r="P3" s="1">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>21</v>
-      </c>
-      <c r="R3" s="1">
-        <v>17</v>
-      </c>
-      <c r="S3" s="1">
-        <v>12</v>
-      </c>
-      <c r="T3" s="1">
-        <v>3</v>
-      </c>
-      <c r="U3" s="1">
-        <v>2</v>
+      <c r="S3">
+        <v>33</v>
+      </c>
+      <c r="T3">
+        <v>28</v>
+      </c>
+      <c r="U3">
+        <v>23</v>
+      </c>
+      <c r="V3">
+        <v>16</v>
+      </c>
+      <c r="W3">
+        <v>11</v>
+      </c>
+      <c r="X3">
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>18</v>
+      </c>
+      <c r="E4">
         <v>28</v>
       </c>
-      <c r="C4" s="1">
+      <c r="F4">
         <v>30</v>
       </c>
-      <c r="D4" s="1">
+      <c r="G4">
         <v>32</v>
       </c>
-      <c r="E4" s="1">
+      <c r="H4">
         <v>34</v>
       </c>
-      <c r="F4" s="1">
+      <c r="I4">
         <v>36</v>
       </c>
-      <c r="G4" s="1">
+      <c r="J4">
         <v>38</v>
       </c>
-      <c r="H4" s="1">
+      <c r="K4">
         <v>40</v>
       </c>
-      <c r="I4" s="1">
+      <c r="L4">
         <v>42</v>
       </c>
-      <c r="J4" s="1">
+      <c r="M4">
         <v>44</v>
       </c>
-      <c r="K4" s="1">
+      <c r="N4">
         <v>46</v>
       </c>
-      <c r="L4" s="1">
+      <c r="O4">
         <v>48</v>
       </c>
-      <c r="M4" s="1">
+      <c r="P4">
         <v>50</v>
       </c>
-      <c r="N4" s="1">
+      <c r="Q4">
         <v>52</v>
       </c>
-      <c r="O4" s="1">
+      <c r="R4">
         <v>54</v>
       </c>
-      <c r="P4" s="1">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>23</v>
-      </c>
-      <c r="R4" s="1">
-        <v>19</v>
-      </c>
-      <c r="S4" s="1">
-        <v>14</v>
-      </c>
-      <c r="T4" s="1">
-        <v>4</v>
-      </c>
-      <c r="U4" s="1">
-        <v>3</v>
+      <c r="S4">
+        <v>35</v>
+      </c>
+      <c r="T4">
+        <v>30</v>
+      </c>
+      <c r="U4">
+        <v>25</v>
+      </c>
+      <c r="V4">
+        <v>18</v>
+      </c>
+      <c r="W4">
+        <v>13</v>
+      </c>
+      <c r="X4">
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>23</v>
+      </c>
+      <c r="E5">
         <v>32</v>
       </c>
-      <c r="C5" s="1">
+      <c r="F5">
         <v>34</v>
       </c>
-      <c r="D5" s="1">
+      <c r="G5">
         <v>36</v>
       </c>
-      <c r="E5" s="1">
+      <c r="H5">
         <v>38</v>
       </c>
-      <c r="F5" s="1">
+      <c r="I5">
         <v>40</v>
       </c>
-      <c r="G5" s="1">
+      <c r="J5">
         <v>42</v>
       </c>
-      <c r="H5" s="1">
+      <c r="K5">
         <v>44</v>
       </c>
-      <c r="I5" s="1">
+      <c r="L5">
         <v>46</v>
       </c>
-      <c r="J5" s="1">
+      <c r="M5">
         <v>48</v>
       </c>
-      <c r="K5" s="1">
+      <c r="N5">
         <v>50</v>
       </c>
-      <c r="L5" s="1">
+      <c r="O5">
         <v>52</v>
       </c>
-      <c r="M5" s="1">
+      <c r="P5">
         <v>54</v>
       </c>
-      <c r="N5" s="1">
+      <c r="Q5">
         <v>56</v>
       </c>
-      <c r="O5" s="1">
+      <c r="R5">
         <v>58</v>
       </c>
-      <c r="P5" s="1">
-        <v>29</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>25</v>
-      </c>
-      <c r="R5" s="1">
-        <v>21</v>
-      </c>
-      <c r="S5" s="1">
-        <v>16</v>
-      </c>
-      <c r="T5" s="1">
-        <v>5</v>
-      </c>
-      <c r="U5" s="1">
-        <v>4</v>
+      <c r="S5">
+        <v>37</v>
+      </c>
+      <c r="T5">
+        <v>32</v>
+      </c>
+      <c r="U5">
+        <v>27</v>
+      </c>
+      <c r="V5">
+        <v>20</v>
+      </c>
+      <c r="W5">
+        <v>15</v>
+      </c>
+      <c r="X5">
+        <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>27</v>
+      </c>
+      <c r="E6">
         <v>36</v>
       </c>
-      <c r="C6" s="1">
+      <c r="F6">
         <v>38</v>
       </c>
-      <c r="D6" s="1">
+      <c r="G6">
         <v>40</v>
       </c>
-      <c r="E6" s="1">
+      <c r="H6">
         <v>42</v>
       </c>
-      <c r="F6" s="1">
+      <c r="I6">
         <v>44</v>
       </c>
-      <c r="G6" s="1">
+      <c r="J6">
         <v>46</v>
       </c>
-      <c r="H6" s="1">
+      <c r="K6">
         <v>48</v>
       </c>
-      <c r="I6" s="1">
+      <c r="L6">
         <v>50</v>
       </c>
-      <c r="J6" s="1">
+      <c r="M6">
         <v>52</v>
       </c>
-      <c r="K6" s="1">
+      <c r="N6">
         <v>54</v>
       </c>
-      <c r="L6" s="1">
+      <c r="O6">
         <v>56</v>
       </c>
-      <c r="M6" s="1">
+      <c r="P6">
         <v>58</v>
       </c>
-      <c r="N6" s="1">
+      <c r="Q6">
         <v>60</v>
       </c>
-      <c r="O6" s="1">
+      <c r="R6">
         <v>62</v>
       </c>
-      <c r="P6" s="1">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>27</v>
-      </c>
-      <c r="R6" s="1">
-        <v>23</v>
-      </c>
-      <c r="S6" s="1">
-        <v>18</v>
-      </c>
-      <c r="T6" s="1">
-        <v>6</v>
-      </c>
-      <c r="U6" s="1">
-        <v>5</v>
+      <c r="S6">
+        <v>39</v>
+      </c>
+      <c r="T6">
+        <v>34</v>
+      </c>
+      <c r="U6">
+        <v>29</v>
+      </c>
+      <c r="V6">
+        <v>24</v>
+      </c>
+      <c r="W6">
+        <v>17</v>
+      </c>
+      <c r="X6">
+        <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
+        <v>28</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>31</v>
+      </c>
+      <c r="E7">
         <v>40</v>
       </c>
-      <c r="C7" s="1">
+      <c r="F7">
         <v>42</v>
       </c>
-      <c r="D7" s="1">
+      <c r="G7">
         <v>44</v>
       </c>
-      <c r="E7" s="1">
+      <c r="H7">
         <v>46</v>
       </c>
-      <c r="F7" s="1">
+      <c r="I7">
         <v>48</v>
       </c>
-      <c r="G7" s="1">
+      <c r="J7">
         <v>50</v>
       </c>
-      <c r="H7" s="1">
+      <c r="K7">
         <v>52</v>
       </c>
-      <c r="I7" s="1">
+      <c r="L7">
         <v>54</v>
       </c>
-      <c r="J7" s="1">
+      <c r="M7">
         <v>56</v>
       </c>
-      <c r="K7" s="1">
+      <c r="N7">
         <v>58</v>
       </c>
-      <c r="L7" s="1">
+      <c r="O7">
         <v>60</v>
       </c>
-      <c r="M7" s="1">
+      <c r="P7">
         <v>62</v>
       </c>
-      <c r="N7" s="1">
+      <c r="Q7">
         <v>64</v>
       </c>
-      <c r="O7" s="1">
+      <c r="R7">
         <v>66</v>
       </c>
-      <c r="P7" s="1">
-        <v>33</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>29</v>
-      </c>
-      <c r="R7" s="1">
-        <v>25</v>
-      </c>
-      <c r="S7" s="1">
-        <v>20</v>
-      </c>
-      <c r="T7" s="1">
-        <v>7</v>
-      </c>
-      <c r="U7" s="1">
-        <v>6</v>
+      <c r="S7">
+        <v>41</v>
+      </c>
+      <c r="T7">
+        <v>36</v>
+      </c>
+      <c r="U7">
+        <v>31</v>
+      </c>
+      <c r="V7">
+        <v>26</v>
+      </c>
+      <c r="W7">
+        <v>19</v>
+      </c>
+      <c r="X7">
+        <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>35</v>
+      </c>
+      <c r="E8">
         <v>44</v>
       </c>
-      <c r="C8" s="1">
+      <c r="F8">
         <v>46</v>
       </c>
-      <c r="D8" s="1">
+      <c r="G8">
         <v>48</v>
       </c>
-      <c r="E8" s="1">
+      <c r="H8">
         <v>50</v>
       </c>
-      <c r="F8" s="1">
+      <c r="I8">
         <v>52</v>
       </c>
-      <c r="G8" s="1">
+      <c r="J8">
         <v>54</v>
       </c>
-      <c r="H8" s="1">
+      <c r="K8">
         <v>56</v>
       </c>
-      <c r="I8" s="1">
+      <c r="L8">
         <v>58</v>
       </c>
-      <c r="J8" s="1">
+      <c r="M8">
         <v>60</v>
       </c>
-      <c r="K8" s="1">
+      <c r="N8">
         <v>62</v>
       </c>
-      <c r="L8" s="1">
+      <c r="O8">
         <v>64</v>
       </c>
-      <c r="M8" s="1">
+      <c r="P8">
         <v>66</v>
       </c>
-      <c r="N8" s="1">
+      <c r="Q8">
         <v>68</v>
       </c>
-      <c r="O8" s="1">
+      <c r="R8">
         <v>70</v>
       </c>
-      <c r="P8" s="1">
-        <v>35</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>31</v>
-      </c>
-      <c r="R8" s="1">
-        <v>27</v>
-      </c>
-      <c r="S8" s="1">
-        <v>22</v>
-      </c>
-      <c r="T8" s="1">
-        <v>8</v>
-      </c>
-      <c r="U8" s="1">
-        <v>7</v>
+      <c r="S8">
+        <v>43</v>
+      </c>
+      <c r="T8">
+        <v>38</v>
+      </c>
+      <c r="U8">
+        <v>33</v>
+      </c>
+      <c r="V8">
+        <v>28</v>
+      </c>
+      <c r="W8">
+        <v>21</v>
+      </c>
+      <c r="X8">
+        <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>39</v>
+      </c>
+      <c r="E9">
         <v>48</v>
       </c>
-      <c r="C9" s="1">
+      <c r="F9">
         <v>50</v>
       </c>
-      <c r="D9" s="1">
+      <c r="G9">
         <v>52</v>
       </c>
-      <c r="E9" s="1">
+      <c r="H9">
         <v>54</v>
       </c>
-      <c r="F9" s="1">
+      <c r="I9">
         <v>56</v>
       </c>
-      <c r="G9" s="1">
+      <c r="J9">
         <v>58</v>
       </c>
-      <c r="H9" s="1">
+      <c r="K9">
         <v>60</v>
       </c>
-      <c r="I9" s="1">
+      <c r="L9">
         <v>62</v>
       </c>
-      <c r="J9" s="1">
+      <c r="M9">
         <v>64</v>
       </c>
-      <c r="K9" s="1">
+      <c r="N9">
         <v>66</v>
       </c>
-      <c r="L9" s="1">
+      <c r="O9">
         <v>68</v>
       </c>
-      <c r="M9" s="1">
+      <c r="P9">
         <v>70</v>
       </c>
-      <c r="N9" s="1">
+      <c r="Q9">
         <v>72</v>
       </c>
-      <c r="O9" s="1">
+      <c r="R9">
         <v>74</v>
       </c>
-      <c r="P9" s="1">
-        <v>37</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>33</v>
-      </c>
-      <c r="R9" s="1">
-        <v>29</v>
-      </c>
-      <c r="S9" s="1">
-        <v>24</v>
-      </c>
-      <c r="T9" s="1">
-        <v>10</v>
-      </c>
-      <c r="U9" s="1">
-        <v>9</v>
+      <c r="S9">
+        <v>45</v>
+      </c>
+      <c r="T9">
+        <v>40</v>
+      </c>
+      <c r="U9">
+        <v>35</v>
+      </c>
+      <c r="V9">
+        <v>30</v>
+      </c>
+      <c r="W9">
+        <v>23</v>
+      </c>
+      <c r="X9">
+        <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <v>42</v>
+      </c>
+      <c r="D10">
+        <v>43</v>
+      </c>
+      <c r="E10">
         <v>52</v>
       </c>
-      <c r="C10" s="1">
+      <c r="F10">
         <v>54</v>
       </c>
-      <c r="D10" s="1">
+      <c r="G10">
         <v>56</v>
       </c>
-      <c r="E10" s="1">
+      <c r="H10">
         <v>58</v>
       </c>
-      <c r="F10" s="1">
+      <c r="I10">
         <v>60</v>
       </c>
-      <c r="G10" s="1">
+      <c r="J10">
         <v>62</v>
       </c>
-      <c r="H10" s="1">
+      <c r="K10">
         <v>64</v>
       </c>
-      <c r="I10" s="1">
+      <c r="L10">
         <v>66</v>
       </c>
-      <c r="J10" s="1">
+      <c r="M10">
         <v>68</v>
       </c>
-      <c r="K10" s="1">
+      <c r="N10">
         <v>70</v>
       </c>
-      <c r="L10" s="1">
+      <c r="O10">
         <v>72</v>
       </c>
-      <c r="M10" s="1">
+      <c r="P10">
         <v>74</v>
       </c>
-      <c r="N10" s="1">
+      <c r="Q10">
         <v>76</v>
       </c>
-      <c r="O10" s="1">
+      <c r="R10">
         <v>78</v>
       </c>
-      <c r="P10" s="1">
-        <v>39</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>35</v>
-      </c>
-      <c r="R10" s="1">
-        <v>31</v>
-      </c>
-      <c r="S10" s="1">
-        <v>26</v>
-      </c>
-      <c r="T10" s="1">
-        <v>12</v>
-      </c>
-      <c r="U10" s="1">
-        <v>10</v>
+      <c r="S10">
+        <v>47</v>
+      </c>
+      <c r="T10">
+        <v>42</v>
+      </c>
+      <c r="U10">
+        <v>37</v>
+      </c>
+      <c r="V10">
+        <v>32</v>
+      </c>
+      <c r="W10">
+        <v>25</v>
+      </c>
+      <c r="X10">
+        <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>46</v>
+      </c>
+      <c r="D11">
+        <v>47</v>
+      </c>
+      <c r="E11">
         <v>56</v>
       </c>
-      <c r="C11" s="1">
+      <c r="F11">
         <v>58</v>
       </c>
-      <c r="D11" s="1">
+      <c r="G11">
         <v>60</v>
       </c>
-      <c r="E11" s="1">
+      <c r="H11">
         <v>62</v>
       </c>
-      <c r="F11" s="1">
+      <c r="I11">
         <v>64</v>
       </c>
-      <c r="G11" s="1">
+      <c r="J11">
         <v>66</v>
       </c>
-      <c r="H11" s="1">
+      <c r="K11">
         <v>68</v>
       </c>
-      <c r="I11" s="1">
+      <c r="L11">
         <v>70</v>
       </c>
-      <c r="J11" s="1">
+      <c r="M11">
         <v>72</v>
       </c>
-      <c r="K11" s="1">
+      <c r="N11">
         <v>74</v>
       </c>
-      <c r="L11" s="1">
+      <c r="O11">
         <v>76</v>
       </c>
-      <c r="M11" s="1">
+      <c r="P11">
         <v>78</v>
       </c>
-      <c r="N11" s="1">
+      <c r="Q11">
         <v>80</v>
       </c>
-      <c r="O11" s="1">
+      <c r="R11">
         <v>82</v>
       </c>
-      <c r="P11" s="1">
-        <v>41</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>37</v>
-      </c>
-      <c r="R11" s="1">
-        <v>33</v>
-      </c>
-      <c r="S11" s="1">
-        <v>28</v>
-      </c>
-      <c r="T11" s="1">
-        <v>14</v>
-      </c>
-      <c r="U11" s="1">
-        <v>11</v>
+      <c r="S11">
+        <v>49</v>
+      </c>
+      <c r="T11">
+        <v>44</v>
+      </c>
+      <c r="U11">
+        <v>39</v>
+      </c>
+      <c r="V11">
+        <v>34</v>
+      </c>
+      <c r="W11">
+        <v>27</v>
+      </c>
+      <c r="X11">
+        <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
+        <v>48</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>51</v>
+      </c>
+      <c r="E12">
         <v>60</v>
       </c>
-      <c r="C12" s="1">
+      <c r="F12">
         <v>62</v>
       </c>
-      <c r="D12" s="1">
+      <c r="G12">
         <v>64</v>
       </c>
-      <c r="E12" s="1">
+      <c r="H12">
         <v>66</v>
       </c>
-      <c r="F12" s="1">
+      <c r="I12">
         <v>68</v>
       </c>
-      <c r="G12" s="1">
+      <c r="J12">
         <v>70</v>
       </c>
-      <c r="H12" s="1">
+      <c r="K12">
         <v>72</v>
       </c>
-      <c r="I12" s="1">
+      <c r="L12">
         <v>74</v>
       </c>
-      <c r="J12" s="1">
+      <c r="M12">
         <v>76</v>
       </c>
-      <c r="K12" s="1">
+      <c r="N12">
         <v>78</v>
       </c>
-      <c r="L12" s="1">
+      <c r="O12">
         <v>80</v>
       </c>
-      <c r="M12" s="1">
+      <c r="P12">
         <v>82</v>
       </c>
-      <c r="N12" s="1">
+      <c r="Q12">
         <v>84</v>
       </c>
-      <c r="O12" s="1">
+      <c r="R12">
         <v>86</v>
       </c>
-      <c r="P12" s="1">
-        <v>43</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>39</v>
-      </c>
-      <c r="R12" s="1">
-        <v>35</v>
-      </c>
-      <c r="S12" s="1">
+      <c r="S12">
+        <v>51</v>
+      </c>
+      <c r="T12">
+        <v>46</v>
+      </c>
+      <c r="U12">
+        <v>41</v>
+      </c>
+      <c r="V12">
+        <v>36</v>
+      </c>
+      <c r="W12">
         <v>30</v>
       </c>
-      <c r="T12" s="1">
-        <v>16</v>
-      </c>
-      <c r="U12" s="1">
-        <v>12</v>
+      <c r="X12">
+        <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
+        <v>52</v>
+      </c>
+      <c r="C13">
+        <v>54</v>
+      </c>
+      <c r="D13">
+        <v>55</v>
+      </c>
+      <c r="E13">
         <v>64</v>
       </c>
-      <c r="C13" s="1">
+      <c r="F13">
         <v>66</v>
       </c>
-      <c r="D13" s="1">
+      <c r="G13">
         <v>68</v>
       </c>
-      <c r="E13" s="1">
+      <c r="H13">
         <v>70</v>
       </c>
-      <c r="F13" s="1">
+      <c r="I13">
         <v>72</v>
       </c>
-      <c r="G13" s="1">
+      <c r="J13">
         <v>74</v>
       </c>
-      <c r="H13" s="1">
+      <c r="K13">
         <v>76</v>
       </c>
-      <c r="I13" s="1">
+      <c r="L13">
         <v>78</v>
       </c>
-      <c r="J13" s="1">
+      <c r="M13">
         <v>80</v>
       </c>
-      <c r="K13" s="1">
+      <c r="N13">
         <v>82</v>
       </c>
-      <c r="L13" s="1">
+      <c r="O13">
         <v>84</v>
       </c>
-      <c r="M13" s="1">
+      <c r="P13">
         <v>86</v>
       </c>
-      <c r="N13" s="1">
+      <c r="Q13">
         <v>88</v>
       </c>
-      <c r="O13" s="1">
+      <c r="R13">
         <v>90</v>
       </c>
-      <c r="P13" s="1">
-        <v>45</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>41</v>
-      </c>
-      <c r="R13" s="1">
-        <v>37</v>
-      </c>
-      <c r="S13" s="1">
-        <v>32</v>
-      </c>
-      <c r="T13" s="1">
-        <v>18</v>
-      </c>
-      <c r="U13" s="1">
-        <v>13</v>
+      <c r="S13">
+        <v>53</v>
+      </c>
+      <c r="T13">
+        <v>48</v>
+      </c>
+      <c r="U13">
+        <v>43</v>
+      </c>
+      <c r="V13">
+        <v>38</v>
+      </c>
+      <c r="W13">
+        <v>33</v>
+      </c>
+      <c r="X13">
+        <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
+        <v>56</v>
+      </c>
+      <c r="C14">
+        <v>58</v>
+      </c>
+      <c r="D14">
+        <v>59</v>
+      </c>
+      <c r="E14">
         <v>68</v>
       </c>
-      <c r="C14" s="1">
+      <c r="F14">
         <v>70</v>
       </c>
-      <c r="D14" s="1">
+      <c r="G14">
         <v>72</v>
       </c>
-      <c r="E14" s="1">
+      <c r="H14">
         <v>74</v>
       </c>
-      <c r="F14" s="1">
+      <c r="I14">
         <v>76</v>
       </c>
-      <c r="G14" s="1">
+      <c r="J14">
         <v>78</v>
       </c>
-      <c r="H14" s="1">
+      <c r="K14">
         <v>80</v>
       </c>
-      <c r="I14" s="1">
+      <c r="L14">
         <v>82</v>
       </c>
-      <c r="J14" s="1">
+      <c r="M14">
         <v>84</v>
       </c>
-      <c r="K14" s="1">
+      <c r="N14">
         <v>86</v>
       </c>
-      <c r="L14" s="1">
+      <c r="O14">
         <v>88</v>
       </c>
-      <c r="M14" s="1">
+      <c r="P14">
         <v>90</v>
       </c>
-      <c r="N14" s="1">
+      <c r="Q14">
         <v>92</v>
       </c>
-      <c r="O14" s="1">
+      <c r="R14">
         <v>94</v>
       </c>
-      <c r="P14" s="1">
-        <v>47</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>43</v>
-      </c>
-      <c r="R14" s="1">
-        <v>39</v>
-      </c>
-      <c r="S14" s="1">
-        <v>34</v>
-      </c>
-      <c r="T14" s="1">
-        <v>20</v>
-      </c>
-      <c r="U14" s="1">
-        <v>14</v>
+      <c r="S14">
+        <v>55</v>
+      </c>
+      <c r="T14">
+        <v>50</v>
+      </c>
+      <c r="U14">
+        <v>45</v>
+      </c>
+      <c r="V14">
+        <v>40</v>
+      </c>
+      <c r="W14">
+        <v>35</v>
+      </c>
+      <c r="X14">
+        <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
+        <v>60</v>
+      </c>
+      <c r="C15">
+        <v>62</v>
+      </c>
+      <c r="D15">
+        <v>63</v>
+      </c>
+      <c r="E15">
         <v>72</v>
       </c>
-      <c r="C15" s="1">
+      <c r="F15">
         <v>74</v>
       </c>
-      <c r="D15" s="1">
+      <c r="G15">
         <v>76</v>
       </c>
-      <c r="E15" s="1">
+      <c r="H15">
         <v>78</v>
       </c>
-      <c r="F15" s="1">
+      <c r="I15">
         <v>80</v>
       </c>
-      <c r="G15" s="1">
+      <c r="J15">
         <v>82</v>
       </c>
-      <c r="H15" s="1">
+      <c r="K15">
         <v>84</v>
       </c>
-      <c r="I15" s="1">
+      <c r="L15">
         <v>86</v>
       </c>
-      <c r="J15" s="1">
+      <c r="M15">
         <v>88</v>
       </c>
-      <c r="K15" s="1">
+      <c r="N15">
         <v>90</v>
       </c>
-      <c r="L15" s="1">
+      <c r="O15">
         <v>92</v>
       </c>
-      <c r="M15" s="1">
+      <c r="P15">
         <v>94</v>
       </c>
-      <c r="N15" s="1">
+      <c r="Q15">
         <v>96</v>
       </c>
-      <c r="O15" s="1">
+      <c r="R15">
         <v>98</v>
       </c>
-      <c r="P15" s="1">
-        <v>49</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>45</v>
-      </c>
-      <c r="R15" s="1">
+      <c r="S15">
+        <v>57</v>
+      </c>
+      <c r="T15">
+        <v>52</v>
+      </c>
+      <c r="U15">
+        <v>47</v>
+      </c>
+      <c r="V15">
         <v>42</v>
       </c>
-      <c r="S15" s="1">
-        <v>36</v>
-      </c>
-      <c r="T15" s="1">
-        <v>22</v>
-      </c>
-      <c r="U15" s="1">
-        <v>15</v>
+      <c r="W15">
+        <v>37</v>
+      </c>
+      <c r="X15">
+        <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1">
-        <v>51</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>47</v>
-      </c>
-      <c r="R16" s="1">
-        <v>45</v>
-      </c>
-      <c r="S16" s="1">
-        <v>38</v>
-      </c>
-      <c r="T16" s="1">
-        <v>24</v>
-      </c>
-      <c r="U16" s="1">
-        <v>16</v>
+      <c r="S16">
+        <v>59</v>
+      </c>
+      <c r="T16">
+        <v>54</v>
+      </c>
+      <c r="U16">
+        <v>49</v>
+      </c>
+      <c r="V16">
+        <v>44</v>
+      </c>
+      <c r="W16">
+        <v>39</v>
+      </c>
+      <c r="X16">
+        <v>30</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4531,18 +4729,21 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B2:O2">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="B2:R2">
+    <cfRule type="cellIs" dxfId="5" priority="13" operator="greaterThan">
       <formula>B3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:U2">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="P2:X2">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="greaterThan">
       <formula>P3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:U15 P16:U16">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="B3:X16">
+    <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
       <formula>B2</formula>
     </cfRule>
   </conditionalFormatting>
